--- a/data/output/processed/txt.xlsx
+++ b/data/output/processed/txt.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,659 +424,6337 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>自由市的夜街人声鼎沸，暮色中，灯红酒绿的世界正向游人们撩起自己迷人的面纱。</t>
+          <t>傍晚。</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>The night streets of Freeport buzz with life, as the vibrant glow of neon lights and revelry unveils its alluring charm to visitors under the dusk.</t>
+          <t>Evening.</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>1girl, nightlife, vibrant neon lights, alluring charm, (long flowing hair:1.5), (smiling softly:1.3), stylish dress, leaning against lamppost, front view, bustling city streets, dusk atmosphere, revelry in background</t>
+          <t>1girl, evening mood, melancholic expression, long flowing hair, elegant dress, sitting pose, front view, gazing at sunset, city park background  
+1girl, serene atmosphere, soft smile, wavy brown hair, cozy sweater, leaning pose, side view, holding a book, library background  
+1boy, urban night, contemplative look, short black hair, hoodie and jeans, standing pose, back view, hands in pockets, streetlight background  
+1girl, romantic theme, blushing cheeks, curly blonde hair, floral sundress, twirling pose, low angle view, dancing, garden background  
+1boy, adventure theme, determined gaze, spiky hair, leather jacket, running pose, dynamic angle, chasing something, forest background</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>自由市的夜街人声鼎沸，暮色中，灯红酒绿的世界正向游人们撩起自己迷人的面纱。</t>
+          <t>傍晚。</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>这座城市位于南太平洋地区的哈夫曼岛，是岛上最大的都市，人口将近百万。</t>
+          <t>细蒙蒙的小雨从天而降，在路灯外缘交织成一团湿淋淋的光幕。</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This city is located on Hoffman Island in the South Pacific and is the largest urban center on the island, with a population of nearly one million.</t>
+          <t>A fine drizzle fell from the sky, weaving a glistening curtain of light around the edges of the streetlamp.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1girl, urban explorer, curious expression, (long wavy hair:1.3), (casual travel outfit:1.2), standing pose, looking at cityscape, front view, (Hoffman Island skyline:1.4), South Pacific setting, tropical atmosphere  
-1boy, photographer, focused gaze, (short messy hair:1.1), (professional camera gear:1.3), crouching pose, capturing city view, low angle shot, bustling streets background, island metropolis  
-2girls, tourists, happy smiles, (sun hats:1.2), (summer dresses:1.1), walking pose, holding maps, mid range view, harbor waterfront, vibrant cityscape  
-1man, local guide, friendly demeanor, (tan skin:1.1), (khaki vest:1.2), pointing gesture, explaining landmarks, over the shoulder view, crowded plaza, tropical urban center  
-1woman, business professional, confident stance, (blonde ponytail:1.1), (tailored suit:1.3), holding briefcase, high angle view, modern skyscrapers, coastal city background</t>
+          <t>1girl, melancholic mood, (glistening streetlight:1.5), fine drizzle, (long hair:1.2), reflective expression, raincoat, standing pose, looking up, urban night scene, wet pavement, soft glow, cinematic lighting, side view, quiet atmosphere</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>这座城市位于南太平洋地区的哈夫曼岛，是岛上最大的都市，人口将近百万。</t>
+          <t>细蒙蒙的小雨从天而降，在路灯外缘交织成一团湿淋淋的光幕。</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>它的繁荣来自于20年前战争结束之后的移民潮，移民们将岛上建成了能媲美南国的乐园，在繁华的掩盖下，战争的痕迹仿佛被抹去，很少有人还能感觉得到O·C·U（大洋洲共同联合体）和U·S·N（新大陆合众国）这两大军事联合体处于对峙状态时所带来的紧张。</t>
+          <t>程宗扬默默在街道上走着，心情一片阴霾。</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Its prosperity stems from the wave of immigrants that arrived twenty years ago after the war ended. These settlers transformed the island into a paradise rivaling the southern tropics. Beneath the veneer of bustling activity, the scars of war seem to have faded, and few still sense the tension that once lingered from the standoff between the two major military alliances—the O.C.U. (Oceania Cooperative Union) and the U.S.N. (United States of New Continent).</t>
+          <t>Cheng Zongyang walked silently down the street, his heart shrouded in gloom.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1girl, tropical paradise setting, immigrant theme, young adult, (long flowing hair:1.3), (hopeful expression:1.2), light summer dress, standing pose, gazing at horizon, beach background, palm trees, ocean view, sunset colors, vibrant atmosphere, peaceful mood, (war scars hinted:0.8)  
-1boy, urban bustling scene, post war theme, middle aged, (short rugged hair:1.2), (contemplative look:1.1), casual work clothes, sitting pose, holding tools, cityscape background, market stalls, lively crowd, tropical plants, distant military ships, (tense undertone:0.7)  
-1girl 1boy, island village setting, immigrant life theme, diverse ages, (traditional mixed clothing:1.3), (joyful interaction:1.4), walking together, carrying baskets, village path background, wooden houses, lush vegetation, clear sky, (hidden war relics:0.6)  
-1girl, coastal dock scene, arrival theme, teenage, (wavy brown hair:1.2), (awestruck expression:1.1), simple traveler outfit, reaching forward, boat in background, calm water, distant islands, (fading military tension:0.5)  
-1boy, farming field setting, rebuilding theme, young adult, (sun hat:1.1), (determined face:1.3), rolled up sleeves, planting crops, farmland background, terraced hills, tropical trees, (O.C.U. flag barely visible:0.4)</t>
+          <t>1boy, gloomy mood, walking silently, medium height, (dark clothing:1.2), urban street, side view, nighttime, (shrouded in gloom:1.3), neutral expression, hands in pockets</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>它的繁荣来自于20年前战争结束之后的移民潮，移民们将岛上建成了能媲美南国的乐园，在繁华的掩盖下，战争的痕迹仿佛被抹去，很少有人还能感觉得到O·C·U（大洋洲共同联合体）和U·S·N（新大陆合众国）这两大军事联合体处于对峙状态时所带来的紧张。</t>
+          <t>程宗扬默默在街道上走着，心情一片阴霾。</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>霓虹灯下，一个高高瘦瘦的人影出现在街口。</t>
+          <t>一只黑猫出现在街角。</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Under the neon lights, a tall and slender figure appeared at the street corner.</t>
+          <t>A black cat appeared at the street corner.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1girl, neon lights, tall slender figure, mysterious aura, (long black hair:1.5), (elegant dress:1.2), standing pose, street corner, night urban background, side view, gazing into distance</t>
+          <t>black cat, mysterious atmosphere, street corner, night time, (glowing yellow eyes:1.3), (sleek fur:1.2), (sitting pose:1.1), front view, urban background, dim lighting, quiet surroundings</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>霓虹灯下，一个高高瘦瘦的人影出现在街口。</t>
+          <t>一只黑猫出现在街角。</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>，嗨，雨果，回来了。</t>
+          <t>黄褐色的眼珠望着他，然后慢慢走过街道。</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>"Hey, Hugo, you're back."</t>
+          <t>"Her hazel eyes gazed at him before she slowly crossed the street."</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1boy, casual greeting, happy expression, young adult, short brown hair, (smiling:1.3), t-shirt and jeans, standing pose, front view, urban street background</t>
+          <t>1girl, hazel eyes, gazing, slow walk, crossing street, casual clothing, neutral expression, urban background, daytime, side view, (depth effect:1.1)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>，嗨，雨果，回来了。</t>
+          <t>黄褐色的眼珠望着他，然后慢慢走过街道。</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>，乔，我不在的这几天，夜街的情况怎么样，没出什么乱子吧。</t>
+          <t>黑色的尾巴微微一甩。</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>"Joe, how's the night scene been while I was away? Any trouble?"</t>
+          <t>The black tail gave a slight flick.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1boy, night scene, casual conversation, 1girl, young adult, (short brown hair:1.3), (concerned expression:1.2), (jeans and t-shirt:1.1), leaning against wall, front view, dimly lit street background</t>
+          <t>1girl, mysterious mood, black cat tail, slight flick movement, (curious expression:1.3), dark clothing, crouching pose, low angle view, dimly lit alley, (nighttime ambiance:1.2)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>，乔，我不在的这几天，夜街的情况怎么样，没出什么乱子吧。</t>
+          <t>黑色的尾巴微微一甩。</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>，没有，一切都好，就是生意差了一点。</t>
+          <t>显示出雨水的痕迹。</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>"No, everything's fine, just that business is a bit slow."</t>
+          <t>"Showing traces of rainwater."</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1girl, worried expression, business setting, young adult, shoulder length brown hair, formal office attire, sitting at desk, front view, holding phone, muted background, (worried expression:1.3), (formal office attire:1.1)</t>
+          <t>1girl, melancholic expression, wet hair, (raindrops on skin:1.3), (drenched white dress:1.2), hugging knees, close up, sitting on wet pavement, urban alley background, dim lighting</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>，没有，一切都好，就是生意差了一点。</t>
+          <t>显示出雨水的痕迹。</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>雨果点了点头，原本有些憔悴的脸上仍旧神色平静，仿佛同伴提到的生意状况已是意料之中。</t>
+          <t>怀里抱的纸箱掉在地上，里头的纸片像蝴蝶一样飞出，随即被雨水打湿，零乱地贴在路面上。</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Hugo nodded, his weary face remaining calm, as if his companion's mention of the business situation was nothing unexpected.</t>
+          <t>The cardboard box slipped from my arms, sending its contents fluttering into the air like butterflies, only to be soaked by the rain and scattered messily across the wet pavement.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1boy, weary face, calm expression, business situation, unexpected reaction, companion mention, standing pose, side view, indoor office background</t>
+          <t>1girl, distressed expression, (rainy day:1.3), young adult, (long hair:1.2), casual outfit, kneeling pose, reaching out, cardboard box, wet pavement, scattered items, close up view, urban street background, gloomy atmosphere</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>雨果点了点头，原本有些憔悴的脸上仍旧神色平静，仿佛同伴提到的生意状况已是意料之中。</t>
+          <t>怀里抱的纸箱掉在地上，里头的纸片像蝴蝶一样飞出，随即被雨水打湿，零乱地贴在路面上。</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>雨果和乔是黑手党成员，两人都是在老大维克托手底下讨生活。</t>
+          <t>程宗扬本能地伸出手，想捡起这些曾经凝聚了他心血的文件。</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Hugo and Joe are members of the mafia, both making a living under their boss, Victor.</t>
+          <t>Cheng Zongyang instinctively reached out, wanting to pick up the documents that had once held so much of his effort and dedication.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1boy, mafia member, serious expression, slicked back hair, black suit, standing pose, facing camera, holding gun, dimly lit alley background  
-1boy, mafia member, cold gaze, scar on cheek, trench coat, leaning against wall, side view, smoking cigarette, urban night background  
-2boys, mafia theme, intimidating aura, Hugo short hair, Joe tall, both in formal suits, standing back to back, low angle shot, dark warehouse setting  
-1boy, mafia boss, commanding presence, Victor middle aged, gray hair, pinstripe suit, sitting at desk, front view, handing out orders, luxurious office background  
-1boy, young mafia recruit, nervous look, Hugo early 20s, leather jacket, holding briefcase, walking pose, over the shoulder view, rainy street background</t>
+          <t>1boy, serious expression, reaching motion, business attire, office setting, focused gaze, scattered documents, (effort and dedication:1.3), medium shot, (neat hair:1.1), professional environment</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>雨果和乔是黑手党成员，两人都是在老大维克托手底下讨生活。</t>
+          <t>程宗扬本能地伸出手，想捡起这些曾经凝聚了他心血的文件。</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>不过雨果和乔不一样，他是这个组织当中的中级干部，而乔只是底层的小喽喽。</t>
+          <t>他愣了一下。</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>However, unlike Joe, Hugo was a mid-level officer in the organization, while Joe was just a low-ranking underling.</t>
+          <t>He paused for a moment.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1boy, mid level officer, serious expression, formal uniform, standing confidently, 1boy, low ranking underling, nervous look, simple attire, slouched posture, office background, organizational hierarchy theme, side view, comparing status</t>
+          <t>1boy, pensive expression, young adult, short brown hair, casual jacket, standing pose, mid shot, looking down, urban street background</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>不过雨果和乔不一样，他是这个组织当中的中级干部，而乔只是底层的小喽喽。</t>
+          <t>他愣了一下。</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>夜街是黑手党控制的地盘，这里不论赌场还是夜店，都需要定期向维克托缴纳保护费以获得稳定经营的环境。</t>
+          <t>然后把手插进口袋，默默走开。</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>"The night district is under Mafia control, where every casino and nightclub must pay regular protection money to Victor to ensure their businesses run smoothly."</t>
+          <t>Then he shoved his hands into his pockets and walked away in silence.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1man, mafia boss, intimidating expression, (sharp suit:1.4), (dark alley background:1.3), standing pose, holding cigar, low angle view, night district setting, power aura  
-1girl, nightclub singer, sultry look, (sparkling dress:1.3), (stage lighting:1.2), singing pose, front view, microphone in hand, neon lights background  
-1boy, casino dealer, focused gaze, (formal vest:1.2), (poker table:1.1), dealing cards, top down view, dimly lit room, money stacks  
-2men, mafia enforcers, threatening stance, (black leather jackets:1.3), (back alley:1.2), crossed arms, side view, shadowy figures, street lamps  
-1woman, bar owner, worried expression, (elegant blouse:1.2), (counter setting:1.1), counting money, over the shoulder view, nightclub interior, tense atmosphere</t>
+          <t>1boy, walking away, hands in pockets, silent emotion, (dark mood:1.3), casual clothing, (lonely背影:1.2), urban background, side view, evening light</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>夜街是黑手党控制的地盘，这里不论赌场还是夜店，都需要定期向维克托缴纳保护费以获得稳定经营的环境。</t>
+          <t>然后把手插进口袋，默默走开。</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>维克托罩着的这处销金窟里，每天都有平民乃至达官贵人在此纵情声色一掷千金，十多年来，他日进斗金，已经积攒下了一笔丰厚的家底。</t>
+          <t>还有什么用呢？</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>In this den of indulgence under Viktor's protection, commoners and high-ranking officials alike squandered fortunes daily in revelry. Over more than a decade, his wealth grew exponentially, amassing a substantial fortune.</t>
+          <t>"What's the use now?"</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1man, wealthy noble, opulent casino setting, indulgent lifestyle, smug expression, luxurious clothing, sitting pose, holding wine glass, high angle view, golden chandeliers background  
-1girl, elegant courtesan, lavish party theme, seductive gaze, silk gown, reclining pose, dim lighting, surrounded by nobles, distant view, marble pillars background  
-1boy, young gambler, high stakes atmosphere, nervous excitement, tailored suit, leaning forward, close up view, dice rolling, velvet curtains background  
-crowd scene, decadent banquet, mixed social classes, joyful revelry, extravagant outfits, dancing and drinking, wide angle view, candlelit hall background  
-Viktor, powerful patron, commanding presence, calculating smile, regal attire, standing pose, overseeing crowd, low angle view, ornate throne background</t>
+          <t>1girl, melancholic expression, (long black hair:1.5), (loose white dress:1.2), sitting on a bench, urban park background, twilight lighting, distant gaze, holding a book, shallow depth of field</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>维克托罩着的这处销金窟里，每天都有平民乃至达官贵人在此纵情声色一掷千金，十多年来，他日进斗金，已经积攒下了一笔丰厚的家底。</t>
+          <t>还有什么用呢？</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>维克托对手下非常大方，这也是雨果和乔这些马仔们愿意全心全意替他卖命的原因。</t>
+          <t>自己已经失去了这一切。</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Victor was extremely generous to his subordinates, which was why lackeys like Hugo and Joe were willing to serve him with unwavering loyalty.</t>
+          <t>"I have already lost all of this."</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1boy, generous leader, loyal subordinates, Victor, Hugo, Joe, middle aged man, kind expression, (formal suit:1.2), standing pose, group shot, office background, (warm lighting:1.1)  
-1boy, Victor, noble demeanor, confident smile, (well tailored clothing:1.3), arms crossed, front view, (subordinates in background:1.1), corporate setting  
-2boys, Hugo and Joe, loyal followers, young men, respectful gaze, (business casual attire:1.1), standing beside Victor, slightly behind, (office interior:1.05)  
-1boy, Victor, leadership theme, charismatic aura, (sharp suit:1.4), handshake gesture, eye level view, (subordinates looking admiringly:1.2), professional environment  
-group shot, Victor with subordinates, teamwork theme, mutual respect, (elegant clothing:1.3), relaxed pose, mid shot, (modern office backdrop:1.1)</t>
+          <t>1girl, sorrowful expression, (long black hair:1.5), (tear stained cheeks:1.3), white dress, sitting pose, front view, clutching hands, empty room background, dim lighting</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>维克托对手下非常大方，这也是雨果和乔这些马仔们愿意全心全意替他卖命的原因。</t>
+          <t>自己已经失去了这一切。</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>一些马仔在黑帮之间的冲突中死于非命，少数活下来的幸运儿便成了维克托的依仗，雨果就是其中之一。</t>
+          <t>一个老人出现在他身边，混浊的眼睛望着虚空，慢吞吞说：你的世界黯淡无光。</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>"Many henchmen met violent ends in the clashes between rival gangs, but a lucky few survived and became Victor's trusted allies—Hugo was one of them."</t>
+          <t>An old man appeared beside him, his clouded eyes gazing into the void, and said slowly, "Your world is dark and lifeless."</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1boy, gangster theme, tough expression, scarred face, leather jacket, standing pose, holding gun, front view, dark alley background, (trusted ally:1.3), (violent past:1.2)  
-1man, survivor type, cold gaze, muscular build, tactical vest, crouching pose, aiming weapon, low angle view, urban warzone background, (loyal follower:1.4), (rival gang conflict:1.1)  
-1boy, Hugo character, determined look, short hair, bloodstained shirt, walking pose, side view, smoky battlefield background, (Victor's ally:1.5), (gang warfare:1.2)  
-2men, veteran gangsters, weary eyes, battleworn clothes, back to back pose, wide shot, ruined hideout background, (violent ends:1.3), (clashes:1.1)  
-1man, trusted lieutenant, sharp features, black gloves, commanding pose, over the shoulder view, dimly lit warehouse background, (survived battles:1.4), (rival factions:1.1)</t>
+          <t>1old man, dark fantasy theme, clouded eyes, sorrowful expression, tattered robe, standing pose, front view, gazing into void, desolate wasteland background  
+1old man, mysterious aura, blind eyes, solemn tone, weathered cloak, leaning forward, side view, speaking slowly, barren landscape background  
+1old man, ancient sage, milky white eyes, melancholic mood, ragged garments, arms outstretched, low angle view, delivering prophecy, apocalyptic ruins background  
+1old man, supernatural being, hollow gaze, ominous presence, threadbare shroud, hunched posture, close-up view, whispering ominously, foggy graveyard background  
+1old man, ghostly figure, unseeing eyes, eerie calm, faded attire, floating slightly, high angle view, foretelling doom, ashen sky background</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>一些马仔在黑帮之间的冲突中死于非命，少数活下来的幸运儿便成了维克托的依仗，雨果就是其中之一。</t>
+          <t>一个老人出现在他身边，混浊的眼睛望着虚空，慢吞吞说：你的世界黯淡无光。</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>雨果年纪轻轻就已经跻身帮会中层，这不仅得意于他出众的能力，更和他当年救过维克托的命有关。</t>
+          <t>脚下的街道突然消失，程宗扬彷佛从悬崖跌落，向着没有尽头的深渊直堕下去，耳边回响着那句谶语般的低语。</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Hugo rose to the middle ranks of the gang at a young age, thanks not only to his exceptional skills but also to the fact that he once saved Victor's life.</t>
+          <t>The street beneath his feet vanished abruptly, and Cheng Zongyang felt as if he had stepped off a cliff, plunging into an endless abyss, the ominous whisper echoing in his ears like a prophecy.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1boy, gang member, young age, serious expression, (exceptional skills:1.3), (saved Victor's life:1.2), urban outfit, standing pose, determined look, city alley background, side view, mid ranks position</t>
+          <t>1boy, falling into abyss, horror theme, shocked expression, modern casual wear, midair pose, (depth effect:1.3), (ominous whisper:1.2), dark void background, dynamic motion, first person view</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>雨果年纪轻轻就已经跻身帮会中层，这不仅得意于他出众的能力，更和他当年救过维克托的命有关。</t>
+          <t>脚下的街道突然消失，程宗扬彷佛从悬崖跌落，向着没有尽头的深渊直堕下去，耳边回响着那句谶语般的低语。</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>在自由市，觊觎夜街这处销金窟的人不在少数，可最终这处地方还是被维克托占了下来，他为此付出了许多，其中有家人、有兄弟，差一点还有他自己的命。</t>
+          <t>你的世界黯淡无光。</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>In Free City, many coveted the Night Street as a den of indulgence, but in the end, Victor claimed it as his own. He paid a steep price—family, brothers, and nearly his own life.</t>
+          <t>Your world is dark and lifeless.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1boy, Victor, determined expression, scarred face, (black trench coat:1.3), Night Street, (holding a weapon:1.2), low angle view, dark alley background, neon lights</t>
+          <t>1girl, dark theme, emotionless expression, pale skin, black dress, sitting pose, (lifeless eyes:1.5), dim lighting, empty room, (void background:1.2), front view, hands on knees</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>在自由市，觊觎夜街这处销金窟的人不在少数，可最终这处地方还是被维克托占了下来，他为此付出了许多，其中有家人、有兄弟，差一点还有他自己的命。</t>
+          <t>你的世界黯淡无光。</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>，乔，我去休息一下，有事就到姬娜的住处找我。 ，收到。</t>
+          <t>你的世界黯淡无光……程宗扬伸出手，像一个无助的溺水者，试图抓紧一根不存在的稻草。</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>"Hey Joe, I'm going to take a break. If anything comes up, find me at Gina's place."  
-"Got it."</t>
+          <t>"Your world is dark and lifeless… Cheng Zongyang reached out like a helpless drowning man, grasping for a straw that wasn’t there."</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1girl, casual conversation, relaxed mood, medium brown hair, t shirt and jeans, sitting at a table, front view, holding a coffee cup, cafe background  
-1boy, friendly expression, short black hair, hoodie and shorts, leaning on counter, side view, talking to coworker, diner setting  
-two people, workplace dialogue, neutral tone, modern outfits, facing each other, medium shot, office environment  
-1girl, taking a break, smiling slightly, ponytail, casual dress, walking pose, three quarter view, urban street backdrop  
-1boy, acknowledging message, short reply, messy blonde hair, graphic tee, standing pose, front angle, indoor lighting</t>
+          <t>1boy, despair emotion, dark world, lifeless environment, reaching out, helpless pose, drowning man metaphor, grasping motion, no straw, (dark atmosphere:1.5), (desperate expression:1.3), side view, shadowy background, (clothing tattered:1.1)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>，乔，我去休息一下，有事就到姬娜的住处找我。 ，收到。</t>
+          <t>你的世界黯淡无光……程宗扬伸出手，像一个无助的溺水者，试图抓紧一根不存在的稻草。</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>，乔递了支烟给雨果，接着拿出打火机替他把烟点上，，雨果，你这趟外快跑下来油水多吗。</t>
+          <t>然而只有手中空虚。</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Joe handed a cigarette to Hugo, then pulled out a lighter and lit it for him. "So, Hugo, was this side gig worth the trouble?"</t>
+          <t>"Yet all I hold is emptiness."</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1boy, serious conversation, smoking, 1boy, mid 30s, (tired eyes:1.3), (casual suit:1.2), (leaning pose:1.1), side view, handing cigarette, dimly lit alley  
-1boy, noir atmosphere, exchanging words, 1boy, stubble beard, (contemplative expression:1.4), (wrinkled shirt:1.1), sitting pose, front view, lighting cigarette, urban night background  
-1boy, tense mood, dialogue scene, 1boy, short hair, (smirking lips:1.3), (loose tie:1.2), relaxed pose, low angle view, offering lighter, gritty street setting  
-1boy, cinematic lighting, character interaction, 1boy, sharp jawline, (pensive gaze:1.4), (rolled sleeves:1.1), standing pose, over the shoulder view, smoke swirl, neon city backdrop  
-1boy, dramatic shadows, questioning tone, 1boy, unshaven face, (weary posture:1.3), (untucked shirt:1.1), slight tilt head, close up view, flickering lighter flame, rainy alleyway</t>
+          <t>1girl, sorrowful expression, emptiness theme, slender figure, flowing white dress, sitting pose, (teardrops:1.3), dimly lit room, (hugging knees:1.2), front view, muted colors</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>，乔递了支烟给雨果，接着拿出打火机替他把烟点上，，雨果，你这趟外快跑下来油水多吗。</t>
+          <t>然而只有手中空虚。</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>听兄弟们说，你是帮老大‘送货’去了。</t>
+          <t>一个声音在唤他。</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>"From what the guys told me, you were out making deliveries for the boss."</t>
+          <t>A voice was calling to him.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1boy, serious expression, urban setting, delivery job, 1girl, early 20s, (short black hair:1.3), (messenger bag:1.2), (walking pose:1.1), street background, daytime, slight fatigue, casual clothes, side view</t>
+          <t>1boy, mysterious atmosphere, startled expression, dark hooded cloak, (turning pose:1.3), distant voice calling, foggy forest background, low angle view</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>听兄弟们说，你是帮老大‘送货’去了。</t>
+          <t>一个声音在唤他。</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>雨果叼着香烟深吸了一口，吐出白色的烟雾笑了笑问道，，你听谁说的。</t>
+          <t>那声音优美而纯净，像溪间的泉水，却带着几分惶急。</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Hugo took a deep drag from his cigarette, exhaled a puff of white smoke, and asked with a smile, "Who told you that?"</t>
+          <t>The voice was beautiful and pure, like a mountain spring, yet tinged with a hint of urgency.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1boy, smoking, white smoke, smiling, asking a question, (deep drag from cigarette:1.3), casual clothing, standing pose, indoor setting, dim lighting, (exhaling smoke:1.2), side view, relaxed posture</t>
+          <t>1girl, beautiful voice, pure expression, urgent emotion, long flowing hair, elegant dress, standing pose, singing action, mountain spring background, side view, (long flowing hair:1.5), (elegant dress:1.2), (pure expression:1.1)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>雨果叼着香烟深吸了一口，吐出白色的烟雾笑了笑问道，，你听谁说的。</t>
+          <t>那声音优美而纯净，像溪间的泉水，却带着几分惶急。</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>，嗨，这还用听谁说吗，都是心照不宣的事情了。</t>
+          <t>“宗扬！</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>"Hey, who even needs to hear it from someone? It's already an open secret."</t>
+          <t>"Zong Yang!"</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1girl, secretive atmosphere, mysterious expression, long black hair, elegant dress, leaning pose, close up view, whispering action, dimly lit room, (mysterious expression:1.5), (elegant dress:1.2)</t>
+          <t>1boy, angry expression, young adult, short black hair, school uniform, clenched fists, front view, shouting, classroom background  
+1girl, surprised reaction, teenage, wavy brown hair, casual outfit, hands on cheeks, mid shot, looking at boy, park setting  
+2boys, competitive mood, athletic build, sports jerseys, running pose, low angle, racing track, sunset sky  
+1girl, shy demeanor, petite frame, pink dress, holding books, side profile, blushing, library interior  
+1boy, determined look, muscular, warrior armor, sword raised, dynamic angle, battle stance, fantasy battlefield  
+1girl, cheerful smile, curly blonde hair, summer dress, jumping pose, high angle, beach scenery, sunny day  
+1boy, sad emotion, thin figure, hoodie, sitting on bench, top down view, rainy street, dim lighting  
+2girls, whispering, schoolgirls, plaid skirts, leaning close, over the shoulder shot, classroom desks, chalkboard background  
+1boy, focused concentration, glasses, lab coat, writing notes, close up, science equipment, research lab  
+1girl, playful attitude, pigtails, striped shirt, skipping, three quarter view, playground, bright colors</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>，嗨，这还用听谁说吗，都是心照不宣的事情了。</t>
+          <t>“宗扬！</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>，乔凑了上来，满脸都是讨好的神色，，哈夫曼岛被O·C·U和U·S·N以自由机场为界一分为二，两个大国各管各的地盘，咱们夜街是在西哈夫曼岛，跟东边虽然都在一个岛上，却可是隔着一道‘柏林墙’呢。</t>
+          <t>程宗扬惊醒过来，背上又湿又冷，满是冷汗。</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Joe leaned in with an ingratiating smile. "Huffman Island is split down the middle by the Free Airport, with the O.C.U. and U.S.N. each controlling their own side. Our Night Street is in West Huffman—though we share the same island with the east, there might as well be a ‘Berlin Wall’ between us."</t>
+          <t>Cheng Zongyang jolted awake, his back damp and cold with sweat.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1boy, ingratiating smile, leaning pose, (middle aged man:1.3), (suit clothing:1.2), diplomatic setting, talking, front view, Huffman Island background, divided airport, (political tension:1.1)</t>
+          <t>1boy, shocked expression, sweat on forehead, damp clothing, waking up suddenly, dark room, tense atmosphere, (fearful eyes:1.3), (clenched fists:1.2), dim lighting, night time, bed sheets tangled, (heavy breathing:1.1), first person view</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>，乔凑了上来，满脸都是讨好的神色，，哈夫曼岛被O·C·U和U·S·N以自由机场为界一分为二，两个大国各管各的地盘，咱们夜街是在西哈夫曼岛，跟东边虽然都在一个岛上，却可是隔着一道‘柏林墙’呢。</t>
+          <t>程宗扬惊醒过来，背上又湿又冷，满是冷汗。</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>东边有些东西咱们这边没有，咱们这边有些东西东边也没有，大家都说，走私的油水甚至比在夜街收保护费还要多，要是有机会，可得拉兄弟一把，现在夜街生意变得萧条了，小弟我也要养家糊口啊。</t>
+          <t>他怔了一会儿，才认出眼前这个狭小的房间。</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>"The East has things we don’t have here, and we’ve got things they don’t have over there. Word is, the profits from smuggling even beat what we make collecting protection money on Night Street. If you get a chance, you’ve gotta pull your brother up—business on Night Street is drying up, and I’ve got a family to feed."</t>
+          <t>He froze for a moment before recognizing the cramped room before him.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1boy, smugglers theme, serious expression, rugged appearance, leather jacket, leaning pose, (night street background:1.3), talking action, front view, dim lighting  
-1girl, worried emotion, young adult, long dark hair, casual wear, sitting pose, (urban setting:1.2), side view, hand gestures, shadowy atmosphere  
-1boy, determined look, muscular build, hooded cloak, crouching pose, (smuggling goods:1.4), back view, alleyway background, carrying package  
-1girl, anxious face, slender figure, torn dress, running pose, (nighttime city:1.3), low angle view, fleeing action, foggy streets  
-1boy, angry emotion, scarred face, armored vest, standing pose, (confrontation scene:1.5), front view, clenched fists, neon signs background  
-1girl, hopeful gaze, petite frame, simple tunic, kneeling pose, (family theme:1.2), side view, praying action, humble home interior  
-1boy, tired expression, unshaven beard, dirty shirt, sitting pose, (bar setting:1.1), front view, drinking action, wooden table background</t>
+          <t>1boy, shocked expression, cramped room, young adult, messy brown hair, (wide eyes:1.3), casual outfit, (frozen stance:1.2), front view, dim lighting, wooden furniture, cluttered space</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>东边有些东西咱们这边没有，咱们这边有些东西东边也没有，大家都说，走私的油水甚至比在夜街收保护费还要多，要是有机会，可得拉兄弟一把，现在夜街生意变得萧条了，小弟我也要养家糊口啊。</t>
+          <t>他怔了一会儿，才认出眼前这个狭小的房间。</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>，知道了。</t>
+          <t>路灯昏暗的光影透过窗帘，落在那双白皙的手臂上。</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>"Got it."</t>
+          <t>The dim glow of the streetlight filtered through the curtains, falling on those pale arms.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1girl, confident expression, short black hair, leather jacket, urban theme, walking pose, front view, city street background, (determined look:1.3), (stylish boots:1.2)</t>
+          <t>1girl, melancholic mood, pale skin, dim lighting, (streetlight glow:1.3), loose nightgown, sitting by window, side view, gazing outside, urban night background</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>，知道了。</t>
+          <t>路灯昏暗的光影透过窗帘，落在那双白皙的手臂上。</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>，雨果拍了拍他的肩膀，将吸了一半的烟丢在地上用脚踩了踩，，我先去休息一会，这一趟太累了。</t>
+          <t>程宗扬扭过脸，勉强露出一个笑容。</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Hugo patted him on the shoulder, stubbed out his half-smoked cigarette underfoot, and said, "I’m going to rest for a bit—this trip has worn me out."</t>
+          <t>Cheng Zongyang turned his face away, forcing a faint smile.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1boy, tired expression, mid 30s, (stubble beard:1.3), (worn out clothing:1.2), patting shoulder, (half smoked cigarette:1.1), urban background, evening light, side view, casual stance</t>
+          <t>1boy, forced smile, turning face away, young adult, short black hair, (melancholic expression:1.3), white shirt, (slim build:1.1), sitting pose, side view, dimly lit room, emotional tension</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>，雨果拍了拍他的肩膀，将吸了一半的烟丢在地上用脚踩了踩，，我先去休息一会，这一趟太累了。</t>
+          <t>程宗扬扭过脸，勉强露出一个笑容。</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>，去吧去吧，一定别忘了提携兄弟一把啊。</t>
+          <t>叶紫玫拥住他，心有余悸地说：“你一直在发抖，出了好多汗。</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>"Go on then, but don’t forget to give your buddy a hand when you can."</t>
+          <t>Ye Zimei held him tightly, her voice trembling with lingering fear. "You've been shaking nonstop and sweating so much," she said.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1boy, helping friend, friendly gesture, 1girl, young adult, (smiling warmly:1.5), casual outfit, (reaching out hand:1.2), standing pose, front view, park background, sunny day</t>
+          <t>1girl, emotional scene, fear, trembling voice, hugging tightly, sweat, (long hair:1.3), (teary eyes:1.2), casual clothing, close up view, dim lighting background</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>，去吧去吧，一定别忘了提携兄弟一把啊。</t>
+          <t>叶紫玫拥住他，心有余悸地说：“你一直在发抖，出了好多汗。</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>，乔朝着雨果离去的背影挥了挥手，眼中多了些期待的光芒。 。</t>
+          <t>吓死我了……宗扬，你又做梦了？</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Jo waved at Hugo's retreating figure, a glimmer of anticipation shining in his eyes.</t>
+          <t>"You scared me to death... Zong Yang, were you dreaming again?"</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1boy, anticipation, glimmer in eyes, waving, 1girl, young adult, (casual outfit:1.2), (standing pose:1.1), side view, urban background, daytime</t>
+          <t>1girl, startled expression, (long black hair:1.3), (sleepwear:1.2), sitting on bed, front view, dimly lit bedroom, night time, concerned gaze, hands clutching blanket, soft lighting, dream sequence, emotional tension</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>，乔朝着雨果离去的背影挥了挥手，眼中多了些期待的光芒。 。</t>
+          <t>吓死我了……宗扬，你又做梦了？</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>浴室里热气弥漫，空气中荡漾着沐浴乳的香气，，哗啦啦，的水声渐停，一具曼妙的酮体走出了浴缸。</t>
+          <t>程宗扬没有作声，只是拥紧了自己的女友。</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>The bathroom was filled with steam, the air scented with the fragrance of shower gel. The sound of splashing water gradually ceased as a graceful figure stepped out of the bathtub.</t>
+          <t>Cheng Zongyang remained silent, only holding his girlfriend tighter.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1girl, bathroom setting, steamy atmosphere, shower gel scent, graceful figure, stepping out of bathtub, wet skin, relaxed expression, towel wrapped around body, side view, warm lighting, tiled background</t>
+          <t>1boy, 1girl, romantic moment, silent expression, holding tightly, (emotional intensity:1.3), young couple, casual outfit, close embrace, front view, dimly lit park background</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>浴室里热气弥漫，空气中荡漾着沐浴乳的香气，，哗啦啦，的水声渐停，一具曼妙的酮体走出了浴缸。</t>
+          <t>程宗扬没有作声，只是拥紧了自己的女友。</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>同样的梦境从他接到那份通知时就开始了。</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>The same dream had haunted him ever since he received that notice.</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1boy, haunted dream, anxious expression, young adult, (dark circles under eyes:1.3), (messy hair:1.2), pajamas, sitting on bed, front view, clutching letter, dimly lit bedroom, (moonlight through window:1.1)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>同样的梦境从他接到那份通知时就开始了。</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>三年前，程度宗扬从英文系毕业，进入这家策划公司。</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Three years ago, Chengdu Zongyang graduated from the English department and joined this planning company.</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1girl, young professional, office setting, confident expression, shoulder length black hair, white blouse and black skirt, sitting at desk, front view, holding documents, modern office background  
+1girl, recent graduate, planning meeting, focused demeanor, medium brown hair, formal business attire, standing with presentation pointer, side view, pointing at charts, conference room background  
+1boy, English major, corporate environment, thoughtful gaze, short neat hair, navy blue suit, leaning on whiteboard, three quarter view, writing ideas, glass wall office background  
+1girl, mid 20s, work presentation, slightly nervous smile, wavy shoulder length hair, light gray blazer, standing near projector, low angle view, adjusting microphone, auditorium background  
+1boy, fresh graduate, team discussion, enthusiastic expression, glasses, checkered shirt with tie, gesturing while talking, over shoulder view, animated hand movements, brainstorming area background</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>三年前，程度宗扬从英文系毕业，进入这家策划公司。</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>在工作中，他几乎投了自己所有的精力，凭着这样的努力付出，程宗扬很快成为公司骨干。</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>At work, he devoted almost all his energy and effort, and through such dedication, Cheng Zongyang quickly became a key member of the company.</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1boy, office setting, professional attire, focused expression, (key member:1.3), sitting at desk, working on computer, (dedication:1.2), modern office background, mid shot, business environment, corporate success</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>在工作中，他几乎投了自己所有的精力，凭着这样的努力付出，程宗扬很快成为公司骨干。</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>但他无论如何也没有想到，在他即将踏上成功之路时，却接到了一份裁员通知。</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>But no matter how hard he tried, he never expected to receive a layoff notice just as he was on the verge of success.</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1boy, shocked expression, office setting, business attire, sitting at desk, holding layoff notice, mid 30s, (disappointed:1.3), (dark suit:1.1), front view, corporate background, paperwork scattered</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>但他无论如何也没有想到，在他即将踏上成功之路时，却接到了一份裁员通知。</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>主管不无惋惜地对他说。</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>"Not without regret, the manager said to him."</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1man, manager, regretful expression, formal suit, sitting at desk, facing employee, office background, dim lighting, serious atmosphere, (emotional tension:1.3), (detailed facial expression:1.2)</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>主管不无惋惜地对他说。</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>程宗扬很清楚他想说什么。</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Cheng Zongyang knew exactly what he was trying to say.</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1boy, serious expression, understanding gaze, young adult, (dark hair:1.3), (formal attire:1.2), standing pose, slight smile, medium shot, office background, confident posture</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>程宗扬很清楚他想说什么。</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>优秀并不是被裁的藉口，问题是他不该表现得太优秀，以至于在金融风暴来临前，获得了一份符合他能力的高薪。</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>"Being outstanding isn't the reason for being laid off—the real issue is that he shouldn't have performed so exceptionally well that he landed a high-paying job matching his skills just before the financial crisis hit."</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1man, office setting, professional attire, stressed expression, (high paying job:1.3), (financial crisis:1.2), sitting at desk, front view, holding documents, city skyline background</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>优秀并不是被裁的藉口，问题是他不该表现得太优秀，以至于在金融风暴来临前，获得了一份符合他能力的高薪。</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>这是一个可笑的悖论，自己努力工作，希望显示自己的价值，结果刚刚拿到一份还过得去的薪水，就成为公司第一批裁员的目标。</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Here’s a laughable paradox: you work hard to prove your worth, only to land a decent salary—and then find yourself among the first to be laid off.</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1woman, office setting, frustrated expression, professional attire, sitting at desk, holding resignation letter, mid 30s, (tired eyes:1.3), (messy hair:1.2), cubicle background, overhead view  
+1man, corporate environment, shocked face, business suit, standing abruptly, mid 40s, (tense posture:1.4), (clenched fists:1.1), glass office walls, coworkers in background, front view  
+1girl, urban backdrop, cynical smile, casual office wear, leaning on printer, early 20s, (disheveled blouse:1.2), coffee mug in hand, (paper stack:1.1), fluorescent lighting, side angle  
+1boy, modern workspace, exhausted demeanor, wrinkled shirt, slouched in chair, late 20s, (dark circles:1.3), computer screen glow, (empty desk:1.1), blurred coworkers, low angle shot  
+2women, break room scene, sarcastic laughter, matching business casual, sharing documents, 30s, (raised eyebrows:1.2), (half empty cups:1.1), vending machine background, medium closeup</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>这是一个可笑的悖论，自己努力工作，希望显示自己的价值，结果刚刚拿到一份还过得去的薪水，就成为公司第一批裁员的目标。</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>相反，如果懒惰一点，拿一份比现在低一半的薪水，却可能安全无事。</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>On the other hand, if you take it easy and settle for half your current salary, you might avoid any trouble.</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1girl, relaxed expression, casual attire, sitting pose, office background, (smiling softly:1.3), medium brown hair, (comfortable clothing:1.2), side view, holding coffee cup, minimalist workspace</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>相反，如果懒惰一点，拿一份比现在低一半的薪水，却可能安全无事。</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>“谢谢。</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>"Thank you."</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1girl, grateful expression, (soft smile:1.3), (warm eyes:1.2), casual attire, standing pose, slight bow, indoor setting, natural lighting</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>“谢谢。</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>程宗扬平静地接受了通知，整理好个人物品，领取了一份不少也不多的遣散费，随即离开了公司，成为失业大军中的一员。</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Cheng Zongyang calmly accepted the notice, packed up his personal belongings, collected a modest severance package, and left the company, joining the ranks of the unemployed.</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1man, office setting, laid off, calm expression, (business casual attire:1.2), holding cardboard box, walking away, side view, corporate building background  
+1man, unemployed, resigned demeanor, (neutral facial expression:1.1), carrying personal belongings, modern office background, daytime lighting  
+1man, severance package, composed attitude, (suit jacket:1.3), exiting workplace, medium shot, glass doors in background  
+1man, job termination, quiet acceptance, (tidy hair:1.1), holding documents, walking pose, cubicle background  
+1man, professional setting, subdued emotions, (dress shirt:1.2), leaving company, over the shoulder view, empty desk behind</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>程宗扬平静地接受了通知，整理好个人物品，领取了一份不少也不多的遣散费，随即离开了公司，成为失业大军中的一员。</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>但在程宗扬内心，远没有他表现得那样平静。</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>"But deep down, Cheng Zongyang was far less calm than he appeared."</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1boy, inner turmoil, calm facade, young adult, (tense expression:1.3), formal suit, sitting pose, (clenched hands:1.2), close up view, dimly lit office background</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>但在程宗扬内心，远没有他表现得那样平静。</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>作为一个刚刚工作三年的年轻人，程宗扬并没有太多积蓄。</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>As a young professional with only three years of work experience, Cheng Zongyang didn't have much savings.</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1boy, young professional, 3 years work experience, limited savings, serious expression, business casual attire, sitting at desk, front view, office background, (focused:1.3), (neat hair:1.1)</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>作为一个刚刚工作三年的年轻人，程宗扬并没有太多积蓄。</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>在失业前不久，他拿出所有积蓄作为头期款，预订了一套一年后交付的预售屋。</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Shortly before losing his job, he used all his savings as a down payment to reserve a pre-sale home set to be delivered a year later.</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1man, stressed expression, 30 years old, (business casual attire:1.2), sitting at desk, (hand on forehead:1.3), close up view, signing documents, office background  
+1man, worried face, short brown hair, (formal shirt:1.1), leaning forward, medium shot, counting money, dimly lit room  
+1man, anxious mood, late 20s, (tired eyes:1.4), holding phone, front view, checking bank account, apartment interior  
+1man, desperate emotion, unshaven, (wrinkled clothes:1.1), slumped posture, low angle view, holding house brochure, construction site background  
+1man, overwhelmed feeling, mid 30s, (dark circles under eyes:1.3), holding head, side view, surrounded by bills, cluttered desk</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>在失业前不久，他拿出所有积蓄作为头期款，预订了一套一年后交付的预售屋。</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>直到程宗扬投递出大量简历却毫无回音的时候，他才知道这次失业多么不合时宜。</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>It wasn't until Cheng Zongyang sent out countless resumes without a single response that he realized how badly timed this unemployment was.</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>1boy, unemployment theme, frustrated expression, (disheveled hair:1.3), casual office wear, sitting at desk, front view, typing resumes, dimly lit room background  
+1boy, job search theme, anxious emotion, (tired eyes:1.2), wrinkled shirt, slouched posture, close up view, holding phone, empty apartment background  
+1boy, modern setting, stressed mood, (messy desk:1.1), plain t-shirt, leaning forward, side angle, staring at laptop, cluttered room background  
+1boy, urban life theme, hopeless feeling, (dark circles:1.3), unbuttoned collar, head in hands, low angle view, surrounded by papers, gloomy cityscape outside window</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>直到程宗扬投递出大量简历却毫无回音的时候，他才知道这次失业多么不合时宜。</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>几乎所有的公司都在裁员，几乎所有公司都在裁掉那些刚加入公司不超过五年，还没有来得及积累人脉，却获得高薪的人员。</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Nearly every company is cutting jobs, and almost all of them are targeting high-earning employees who have been with the company for less than five years—those who haven’t had time to build connections yet.</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1girl, office setting, worried expression, young professional, (blonde shoulder length hair:1.3), (business attire:1.2), sitting at desk, front view, holding resignation letter, modern office background  
+1boy, corporate environment, stressed emotion, mid 20s, (short black hair:1.1), formal suit, standing pose, side view, packing belongings, glass wall conference room  
+1girl 1boy, workplace theme, anxious mood, early career employees, (professional clothing:1.2), facing each other, three quarter view, discussing layoffs, open plan office backdrop  
+1man, executive meeting, confident demeanor, 40s, (graying hair:1.1), tailored suit, leaning forward pose, low angle view, presenting charts, boardroom setting  
+1woman, HR department, neutral expression, late 30s, (ponytail hairstyle:1.1), blazer and skirt, holding clipboard, eye level perspective, conducting exit interview, neutral colored office</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>几乎所有的公司都在裁员，几乎所有公司都在裁掉那些刚加入公司不超过五年，还没有来得及积累人脉，却获得高薪的人员。</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>了解到这些状况后，程宗扬的压力陡然增大。</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>"Learning about these situations, Cheng Zongyang felt his pressure mounting."</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>1boy, pressure mounting, stressed expression, young adult, (formal suit:1.3), sitting at desk, (hand on forehead:1.2), close up view, dimly lit office background</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>了解到这些状况后，程宗扬的压力陡然增大。</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>那套预售屋每个月的还贷已经是一个巨大的压力，他还要支付目前住房的租金，进行必要的消费。</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>The monthly mortgage payments for that presale home were already a huge burden, and on top of that, he still had to pay rent for his current place and cover essential living expenses.</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1man, stressed expression, financial burden, 30 years old, (tired eyes:1.3), (formal shirt:1.1), sitting at desk, holding bills, (apartment background:1.2), dim lighting</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>那套预售屋每个月的还贷已经是一个巨大的压力，他还要支付目前住房的租金，进行必要的消费。</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>而他的收入为零。</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>"And he had no income."</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>1boy, poor man, depressed mood, thin face, ragged clothes, sitting on sidewalk, front view, looking down, empty street background</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>而他的收入为零。</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>更可怕的是，谁都不知道这种局面将持续多久。</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Even more frightening is that no one knows how long this situation will last.</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1girl, terrified expression, dark atmosphere, long disheveled hair, tattered clothing, crouching pose, (fearful eyes:1.5), dimly lit room, uncertain future, (shadows:1.2), looking into distance, suspense theme</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>更可怕的是，谁都不知道这种局面将持续多久。</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>“睡不着吗？</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>"Can't sleep?"</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1girl, insomnia, tired expression, dark circles under eyes, (pajamas:1.3), sitting on bed, holding pillow, front view, dimly lit bedroom, (moonlight through window:1.2)</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>“睡不着吗？</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>一只柔软的手掌放在他胸口，在那里温柔地按摩着。</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>A soft palm rested on his chest, gently massaging the spot.</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>1boy, gentle touch, soft palm, chest massage, caring expression, 1girl, young adult, (warm smile:1.5), (comforting gesture:1.2), casual attire, close up view, intimate moment, neutral background</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>一只柔软的手掌放在他胸口，在那里温柔地按摩着。</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>接着女友白净的脸庞移来，轻轻贴在他胸口，感受着他的心跳。</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Then her fair-skinned girlfriend leaned in, gently pressing her cheek against his chest to listen to the steady rhythm of his heartbeat.</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>1girl, fair skin, gentle emotion, leaning pose, 1boy, listening to heartbeat, intimate moment, close up view, soft lighting, (cheek against chest:1.3), casual clothing, indoor background, romantic atmosphere, (steady rhythm:1.2)</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>接着女友白净的脸庞移来，轻轻贴在他胸口，感受着他的心跳。</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>叶紫玫是他相恋四年的女友，现在在一家航空公司作空中小姐。</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Ye Zimei is his girlfriend of four years, and she currently works as a flight attendant for an airline.</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>1girl, girlfriend, flight attendant, (elegant appearance:1.3), (happy expression:1.2), professional uniform, standing pose, airport background, (natural lighting:1.1), slight smile</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>叶紫玫是他相恋四年的女友，现在在一家航空公司作空中小姐。</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>本来他们计划要在一年内结婚，所以才购置了房子，可现在，一切都要推迟了。</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>They had originally planned to get married within a year, which was why they bought the house, but now everything has to be postponed.</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>1girl, 1boy, engaged couple, disappointed expression, modern house interior, (postponed wedding:1.3), casual home wear, sitting on couch, front view, holding hands, (living room background:1.1)  
+1girl, 1boy, young lovers, sad mood, cozy home setting, (delayed plans:1.2), relaxed clothing, leaning on each other, medium shot, looking at wedding photos, warm lighting  
+1girl, 1boy, romantic theme, frustrated emotions, (dream home:1.1), comfortable outfits, standing by window, side angle, discussing future, suburban neighborhood view  
+1girl, 1boy, relationship struggle, worried faces, (empty wedding calendar:1.3), home clothes, hugging pose, close up, (postponement stress:1.2), blurred living space  
+1girl, 1boy, love story, anxious feelings, (unfinished wedding preparations:1.1), casual attire, sitting at dining table, front perspective, deep in thought, spacious kitchen backdrop</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>本来他们计划要在一年内结婚，所以才购置了房子，可现在，一切都要推迟了。</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>那只手掌慢慢向下移去，在他小腹轻柔地摩挲。</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>The hand slowly drifted downward, caressing his abdomen with a gentle touch.</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>1boy, gentle touch, slow movement, caressing abdomen, intimate moment, soft lighting, close up view, bare torso, relaxed pose, warm atmosphere, (tender expression:1.3), (delicate fingers:1.2), neutral background</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>那只手掌慢慢向下移去，在他小腹轻柔地摩挲。</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>程宗扬舒了口气，心里的郁结慢慢化开。</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Cheng Zongyang let out a sigh of relief, feeling the knot in his heart gradually loosen.</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>1boy, relieved expression, young adult, (sighing:1.3), casual attire, standing pose, front view, loosening heart knot, indoor background</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>程宗扬舒了口气，心里的郁结慢慢化开。</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>他搂住自己的女友，在她唇瓣一吻，然后舔了舔她的唇角。</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>He pulled his girlfriend close, kissed her lips, then lightly licked the corner of her mouth.</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1boy, 1girl, romantic moment, intimate gesture, kissing, licking lips, (close embrace:1.3), (soft expression:1.2), casual clothing, facing each other, shallow depth of field, warm lighting, indoor setting</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>他搂住自己的女友，在她唇瓣一吻，然后舔了舔她的唇角。</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>叶紫玫推了他一把，然后乖乖钻进被子。</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Ye Zimei gave him a playful shove before obediently slipping under the covers.</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>1girl, playful emotion, young woman, (long hair:1.3), (sleepwear:1.2), lying on bed, pushing action, close-up view, bedroom background, soft lighting</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>叶紫玫推了他一把，然后乖乖钻进被子。</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>接着，一张柔软的小嘴含住他的龟头，温柔地舔舐起来。</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>"Then, a soft mouth enveloped the head of his cock, gently licking and teasing."</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>1boy, sexual act, intimate moment, 1girl, soft mouth, licking, teasing, (sensual expression:1.3), (pleasurable feeling:1.2), close up view, dim lighting, bedroom background</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>接着，一张柔软的小嘴含住他的龟头，温柔地舔舐起来。</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>舔舐唇角的小动作是他们两个之间的秘密，表示他想让紫玫为自己口交。</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>The subtle lick of his lips was their little secret—a silent plea for Zimei to go down on him.</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>1boy, intimate moment, subtle lick of lips, silent plea, 1girl, (sensual expression:1.5), (parted lips:1.2), casual clothing, kneeling pose, close-up view, dimly lit room, (eye contact:1.3), soft lighting</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>舔舐唇角的小动作是他们两个之间的秘密，表示他想让紫玫为自己口交。</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>以往程宗扬总要呵哄半天，叶紫玫才肯亲吻他的阳具。</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>In the past, Cheng Zongyang would have to coax and plead for a while before Ye Zimei would agree to kiss his cock.</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>1girl, reluctant affection, intimate moment, 1boy, persuasive expression, (blushing face:1.4), (soft lighting:1.3), close up, leaning in, bedroom background, (tender interaction:1.2)</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>以往程宗扬总要呵哄半天，叶紫玫才肯亲吻他的阳具。</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>但自从他失业后，叶紫玫就从来没有拒绝过。</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>"But ever since he lost his job, Ye Zimei never refused."</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>1girl, depressed mood, unemployed, (tired expression:1.5), plain clothing, sitting pose, front view, holding resume, dimly lit room background</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>但自从他失业后，叶紫玫就从来没有拒绝过。</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>一股酥爽的快感从下体升起，程宗扬两手枕在脑后，感受着女友温暖而柔润的口腔。</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>A tingling pleasure rose from his groin as Cheng Zongyang rested his hands behind his head, savoring the warm, velvety softness of his girlfriend's mouth.</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>1boy, romantic moment, pleasure expression, 1girl, young adult, (sensual mouth:1.5), (soft lips:1.2), intimate pose, close up view, warm lighting, bedroom background</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>一股酥爽的快感从下体升起，程宗扬两手枕在脑后，感受着女友温暖而柔润的口腔。</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>像每一个刚工作不久的年轻人一样，程宗扬非常自负。</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>"Like any young person fresh into the workforce, Cheng Zongyang was full of self-confidence."</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>1boy, young professional, confident expression, short black hair, business casual attire, standing pose, office background, front view, holding documents, (self-assured demeanor:1.3), (neat appearance:1.2)</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>像每一个刚工作不久的年轻人一样，程宗扬非常自负。</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>而这次失业对他的打击也比想像中要大了许多。</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>This time, the impact of unemployment hit him much harder than he had anticipated.</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>1boy, depressed emotion, unemployment theme, early 30s, (disheveled hair:1.3), (wrinkled shirt:1.2), sitting on couch, head in hands, (low angle view:1.1), dimly lit room, scattered job applications</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>而这次失业对他的打击也比想像中要大了许多。</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>突然之间失去工作，不仅打乱了程宗扬的生活节奏，更使得他心里充满了挫败感。</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Losing his job suddenly not only disrupted Cheng Zongyang's daily routine but also left him overwhelmed with a sense of failure.</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>1boy, sudden job loss, overwhelmed with failure, disheveled short black hair, depressed expression, wrinkled white shirt, sitting on couch with head in hands, front view, dimly lit apartment background  
+1boy, daily routine disrupted, sense of failure, tired eyes, unbuttoned collar, slouched posture, mid shot, cluttered desk with resignation letter, muted color palette  
+1boy, emotional distress, messy hair, loose tie, holding head in frustration, close up, blurred office background, (depressed expression:1.3), (wrinkled clothing:1.2)  
+1boy, unemployed, staring blankly, unshaven face, plain t-shirt, leaning against wall, side view, empty room with moving boxes, (lonely atmosphere:1.4)  
+1boy, sudden life change, defeated posture, dark circles under eyes, untucked shirt, sitting on floor, low angle view, sparse furniture, (gloomy lighting:1.3)</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>突然之间失去工作，不仅打乱了程宗扬的生活节奏，更使得他心里充满了挫败感。</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>生活突然间变得面目全非，为获得一份工作，他每天投递出无数份求职信，而回答他的，只有冰冷的拒绝。</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Life suddenly turned upside down. In his desperate search for a job, he sent out countless applications every day, only to be met with cold rejections in return.</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>1boy, desperate emotion, job search theme, tired expression, formal clothing, sitting at desk, front view, sending applications, home office background  
+1boy, depressed mood, unemployment theme, messy hair, wrinkled shirt, slouched posture, side view, holding rejection letter, dimly lit room  
+1boy, stressed feeling, career struggle theme, dark circles under eyes, tie loosened, head in hands, close up view, computer screen with emails, cluttered desk background  
+1boy, hopeless emotion, job hunting theme, unshaven face, disheveled suit, leaning forward, low angle view, staring at phone, empty coffee cups around  
+1boy, anxious expression, financial pressure theme, tousled hair, untucked dress shirt, pacing nervously, over the shoulder view, holding resume, small apartment setting</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>生活突然间变得面目全非，为获得一份工作，他每天投递出无数份求职信，而回答他的，只有冰冷的拒绝。</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>在这样黯淡的日子，唯一能带给他安慰的，只有身边的美丽女友。</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>"During these bleak days, the only comfort he found was in his beautiful girlfriend by his side."</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>1boy, emotional support, 1girl, beautiful, loving expression, (long flowing hair:1.4), elegant dress, holding hands, close up view, comforting embrace, dimly lit room, (soft lighting:1.2), romantic atmosphere</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>在这样黯淡的日子，唯一能带给他安慰的，只有身边的美丽女友。</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>心里郁结的压力渐渐散开。</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>The weight in my heart slowly lifted.</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>1girl, emotional relief, (soft smile:1.3), long brown hair, cozy sweater, sitting pose, (sunset background:1.2), warm lighting, hands on chest, front view</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>心里郁结的压力渐渐散开。</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>程宗扬打开床头的台灯，房间里亮了起来。</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Cheng Zongyang turned on the bedside lamp, and the room brightened.</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>1boy, bedroom setting, soft lighting, turning on lamp, (warm light:1.3), casual wear, sitting on bed, (calm expression:1.2), front view, cozy atmosphere, night time</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>程宗扬打开床头的台灯，房间里亮了起来。</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>他心爱的女友正乖乖伏在他腿间，细致地吞吐着他的阳具。</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>His beloved girlfriend was obediently nestled between his legs, attentively taking his cock into her mouth.</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>1boy, intimate moment, loving expression, 1girl, youthful appearance, (long hair:1.5), (kneeling pose:1.3), (oral act:1.2), close-up view, soft lighting, bedroom setting</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>他心爱的女友正乖乖伏在他腿间，细致地吞吐着他的阳具。</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>灯光下，她洁白的身体散发着柔和的肤光，像白玉一样莹润。</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Under the light, her fair skin glowed softly, as smooth and radiant as polished jade.</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>1girl, fair skin glowing softly, (radiant as polished jade:1.5), serene expression, elegant white dress, standing pose, gentle smile, soft lighting, (smooth skin texture:1.2), close up view, tranquil garden background</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>灯光下，她洁白的身体散发着柔和的肤光，像白玉一样莹润。</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>在大学时候，叶紫玫就是有名的校花，不仅长相甜美，气质出众，而且拥有令人羡慕的身材。</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>During her university years, Ye Zimei was the renowned campus belle, celebrated not only for her sweet looks and striking elegance but also for her enviable figure.</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>1girl, university setting, campus belle, sweet looks, striking elegance, enviable figure, (happy expression:1.3), (elegant dress:1.2), standing pose, slight smile, walking on campus, sunny day background</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>在大学时候，叶紫玫就是有名的校花，不仅长相甜美，气质出众，而且拥有令人羡慕的身材。</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>相比之下，程宗扬就平凡了许多，家世也远远不及叶家。</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>In comparison, Cheng Zongyang was far more ordinary, with a family background that paled in comparison to the Ye family's.</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>1boy, family comparison, ordinary background, neutral expression, simple clothing, standing pose, front view, looking at others, mansion background  
+1girl, wealthy family, elegant appearance, confident smile, luxurious dress, sitting pose, side view, holding teacup, garden background  
+2people, contrasting status, Cheng Zongyang and Ye family, modest vs opulent, calm vs proud, casual vs formal, facing each other, medium shot, grand hall background</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>相比之下，程宗扬就平凡了许多，家世也远远不及叶家。</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>然而两个人却走到了一起，彼此相爱。</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Yet the two came together and fell in love.</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>1girl, 1boy, romantic theme, (falling in love:1.5), (happy expression:1.3), young couple, casual outfits, holding hands, close up view, walking together, sunset background</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>然而两个人却走到了一起，彼此相爱。</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>程宗扬抱起女友，从后面进入她体内。</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Cheng Zongyang lifted his girlfriend and entered her from behind.</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>1girl, intimate scene, passionate emotion, long hair, naked, bent over pose, from behind view, holding legs, bedroom background</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>程宗扬抱起女友，从后面进入她体内。</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>叶紫玫侧过脸，丝一般的长发垂在颈侧，微微挺起腰，温柔地容纳下他的阳具。</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Ye Zimei turned her face to the side, her silky hair cascading along her neck as she arched her back slightly, welcoming him with tender warmth.</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>1girl, romantic atmosphere, tender warmth, long silky hair, arched back, neck exposure, intimate moment, slight turn, soft lighting, close-up view, bedroom background</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>叶紫玫侧过脸，丝一般的长发垂在颈侧，微微挺起腰，温柔地容纳下他的阳具。</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>程宗扬紧紧搂着叶紫玫，彷佛一松手，她就会消失不见。</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Cheng Zongyang held Ye Zimei tightly in his arms, as if she would vanish the moment he let go.</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>1boy, 1girl, intense embrace, protective hold, (fear of loss:1.5), (long hair:1.2), modern clothing, (clinging pose:1.1), front view, emotional tension, urban night background</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>程宗扬紧紧搂着叶紫玫，彷佛一松手，她就会消失不见。</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>这一刻，女友柔软的身体带给他无比安慰。</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>At this moment, his girlfriend's gentle embrace brought him immense comfort.</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>1boy, emotional comfort, 1girl, gentle embrace, loving expression, soft smile, warm hug, cozy sweater, intimate moment, close up view, dimly lit room, (tender affection:1.3), (comforting atmosphere:1.2)</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>这一刻，女友柔软的身体带给他无比安慰。</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>程宗扬把所有的压抑和不快都抛在脑后，疯狂地与女友做着爱，直到把自己多余的精力全部发泄出去。</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Cheng Zongyang cast aside all his pent-up frustration and unhappiness, losing himself in passionate lovemaking with his girlfriend until he had spent every last ounce of his restless energy.</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>1boy, passionate lovemaking, 1girl, intense emotions, (sweaty skin:1.3), (disheveled hair:1.2), intimate clothing, (embracing pose:1.1), close-up view, dimly lit bedroom, exhausted expression, tangled sheets, heavy breathing, flushed cheeks</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>程宗扬把所有的压抑和不快都抛在脑后，疯狂地与女友做着爱，直到把自己多余的精力全部发泄出去。</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>“累了吗？</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>"Tired?"</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>1girl, tired expression, young adult, short brown hair, casual wear, sitting on a bench, front view, rubbing eyes, park background, afternoon sunlight  
+1girl, exhausted emotion, office worker, black ponytail, white blouse, leaning on desk, side view, holding coffee, cityscape window, dim lighting  
+1boy, sleepy face, teenager, messy hair, school uniform, slumped posture, low angle, yawning, classroom setting, chalkboard background  
+1girl, weary mood, middle aged, wavy gray hair, apron dress, arms crossed, eye level, sighing, kitchen interior, warm lighting  
+1girl, fatigued demeanor, athlete, tied up hair, sports bra, kneeling pose, dynamic angle, wiping sweat, gym environment, neon lights  
+1boy, drained expression, gamer, glasses, hoodie, slouched in chair, overhead view, controller in hand, gaming setup, blue monitor glow  
+1girl, sleepy emotion, child, pigtails, pajamas, hugging pillow, worm's eye view, rubbing eyes, bedroom interior, nightlight ambiance  
+1girl, overworked feeling, businesswoman, bun hairstyle, pantsuit, standing pose, Dutch angle, checking watch, subway station, rush hour crowd  
+1boy, exhausted mood, construction worker, hard hat, dirty clothes, sitting on beam, low perspective, drinking water, skyscraper construction site  
+1girl, drained appearance, artist, paint splattered clothes, smock, sitting at easel, profile view, palette in hand, art studio, natural light</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>“累了吗？</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>两个人拥在一起，叶紫玫轻声问。</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>The two embraced, and Ye Zimei whispered a question.</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>1girl, romantic moment, emotional embrace, whispering, 20 years old, (long black hair:1.5), (elegant dress:1.2), (hugging pose:1.1), close up view, soft lighting, garden background</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>两个人拥在一起，叶紫玫轻声问。</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>程宗扬露出一个笑容，轻轻碰了碰她的鼻尖，“和你在一起怎么会累呢？</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Cheng Zongyang smiled and gently tapped the tip of her nose. "How could I ever get tired of being with you?"</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>1boy, romantic interaction, gentle smile, 1girl, young adult, (soft facial features:1.3), (happy expression:1.2), casual modern outfit, nose boop gesture, close up view, warm indoor lighting, cozy background</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>程宗扬露出一个笑容，轻轻碰了碰她的鼻尖，“和你在一起怎么会累呢？</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>程宗扬手指僵了一下。</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Cheng Zongyang's finger froze for a moment.</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>1boy, shocked expression, frozen finger, (young adult:1.2), (traditional Chinese clothing:1.1), close up, winter setting, cold breath visible, indoor background, dim lighting</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>程宗扬手指僵了一下。</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>失去工作这一个月，程宗扬投递出无数求职信，却没有得到任何回音。</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>For the past month since losing his job, Cheng Zongyang has sent out countless job applications but hasn't received a single response.</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>1boy, unemployed, depressed mood, early 30s, (messy short hair:1.3), (wrinkled shirt:1.2), sitting at desk, front view, holding phone, dimly lit room  
+1boy, job hunting stress, tired expression, slim build, (dark circles under eyes:1.4), unshaven face, wearing hoodie, slouching posture, computer screen glow, cluttered apartment  
+1boy, hopelessness, Asian features, (disheveled appearance:1.3), plain t-shirt, head in hands, closeup shot, empty coffee cups, resume papers scattered  
+1boy, urban loneliness, late 20s, (frustrated expression:1.5), glasses, casual home clothes, leaning on window, city skyline view, nighttime atmosphere  
+1boy, financial anxiety, medium build, (tense shoulders:1.2), wrinkled pants, checking laptop, medium shot, unpaid bills on table, muted color palette</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>失去工作这一个月，程宗扬投递出无数求职信，却没有得到任何回音。</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>叶紫玫却通过父亲的关系，在上海谋得一个面试机会。</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Ye Zimei secured an interview opportunity in Shanghai through her father's connections.</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>1girl, interview setting, professional attire, confident expression, (father's connections:1.3), (Shanghai background:1.2), standing pose, holding resume, office environment, natural lighting</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>叶紫玫却通过父亲的关系，在上海谋得一个面试机会。</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>如果是以前，程宗扬根本不会理睬这样的面试。</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>"In the past, Cheng Zongyang wouldn't have even bothered with such an interview."</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>1boy, interview setting, arrogant expression, (young man:1.3), (suit:1.2), sitting pose, leaning back, dismissive gesture, office background, professional atmosphere, (confident demeanor:1.1)</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>如果是以前，程宗扬根本不会理睬这样的面试。</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>他很清楚，那个职位并不适合自己。</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>He knew very well that the position wasn't right for him.</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>1man, deep thought, office setting, 30 years old, (tired expression:1.3), formal suit, sitting at desk, front view, holding resignation letter, (dim lighting:1.2), paperwork scattered</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>他很清楚，那个职位并不适合自己。</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>一成不变的朝九晚五，忙碌而无聊的工作，一天接一天地熬资历，等待晋升的机会，自己想要的东西并非如此，但现在已经没有选择。</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>The monotonous nine-to-five grind, the busy yet dull work, day after day of just putting in time, waiting for a chance to move up—this isn’t what I truly wanted, but now I’m left with no other choice.</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>1girl, office setting, tired expression, (long brown hair:1.3), white blouse, black skirt, sitting at desk, front view, typing on keyboard, (dim lighting:1.1), cubicle background  
+1boy, corporate worker, frustrated mood, short black hair, (suit and tie:1.2), leaning on chair, side view, staring at computer, (cluttered desk:1.1), gray office backdrop  
+1girl, young adult, melancholic emotion, shoulder length blonde hair, (formal attire:1.1), resting chin on hand, close up view, sighing, (window with cityscape:1.2), muted colors  
+1boy, mid 20s, weary demeanor, messy dark hair, wrinkled shirt, slouching posture, low angle view, rubbing temples, (clock on wall:1.1), dull office environment  
+1girl, late 20s, resigned expression, (ponytail hair:1.2), pencil skirt outfit, holding coffee cup, over the shoulder view, looking down, (blurred coworkers:1.1), fluorescent lighting</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>一成不变的朝九晚五，忙碌而无聊的工作，一天接一天地熬资历，等待晋升的机会，自己想要的东西并非如此，但现在已经没有选择。</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>“我会去的。</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>"I'll be there."</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>1girl, emotional moment, tender smile, long brown hair, cozy sweater, sitting pose, warm embrace, close-up view, soft lighting, home interior</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>“我会去的。</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>程宗扬说。</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>"Cheng Zongyang said."</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>1man, serious expression, middle aged, business suit, sitting pose, office setting, speaking, front view, (professional demeanor:1.3), (necktie:1.1)</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>程宗扬说。</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>叶紫玫看了下时间，匆忙起身，在浴室里洗过身体，然后包着浴巾出来。</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Ye Zimei checked the time and hurriedly got up. She washed up in the bathroom, then stepped out wrapped in a towel.</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>1girl, daily routine, hurried, (wrapped in towel:1.5), wet hair, bathroom setting, morning light, stepping out, fresh face, neutral expression, bare shoulders, (natural lighting:1.2), simple background, clean atmosphere</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>叶紫玫看了下时间，匆忙起身，在浴室里洗过身体，然后包着浴巾出来。</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>看到她傲人的身材，程宗扬忍不住抱住她，在她丰挺的乳房峰轻轻咬了一口。</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Seeing her stunning figure, Cheng Zongyang couldn't resist pulling her into an embrace and gently nipping the peak of her full, firm breast.</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>1girl, romantic intimacy, (stunning figure:1.5), blushing, (full firm breasts:1.3), elegant nightgown, embracing pose, close up view, being gently nipped, dimly lit bedroom background</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>看到她傲人的身材，程宗扬忍不住抱住她，在她丰挺的乳房峰轻轻咬了一口。</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>“别闹了，我要赶早班的飞机。</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>"Stop fooling around, I have an early flight to catch."</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>1girl, annoyed expression, early morning, business attire, holding suitcase, airport background, front view, walking pose, (sharp features:1.3), (professional hairstyle:1.2), rushing motion</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>“别闹了，我要赶早班的飞机。</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>叶紫玫换上内衣，套上透明的连裤丝袜，穿上天蓝色的空姐制服，结好领巾，然后俯下身，在他耳边说：“我今天飞上海，会在那边休息两天。</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Ye Zimei changed into her lingerie, slipped on sheer pantyhose, and put on her sky-blue flight attendant uniform. After tying her scarf, she leaned down and whispered in his ear, "I'm flying to Shanghai today and will be staying there for a couple of days."</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>1girl, flight attendant, lingerie, sheer pantyhose, sky blue uniform, scarf, whispering, leaning down, intimate moment, Shanghai flight, couple of days stay, professional attire, seductive gaze, close up view, airport background</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>叶紫玫换上内衣，套上透明的连裤丝袜，穿上天蓝色的空姐制服，结好领巾，然后俯下身，在他耳边说：“我今天飞上海，会在那边休息两天。</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>叶紫玫眼睛湿淋淋的，散发出迷人的羞色，小声说：“上次买的那套内衣，我还没有穿过，到时候你带来，我穿上和你搞。</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Ye Zimei's eyes glistened with a captivating shyness as she whispered, "I still haven’t worn that lingerie set I bought last time. Bring it with you, and I’ll put it on for you when we’re together."</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>1girl, intimate moment, shy expression, glistening eyes, whispering, lingerie set, seductive pose, close-up view, dim lighting, bedroom setting, (captivating shyness:1.3), (lingerie:1.2), (whispering:1.1)</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>叶紫玫眼睛湿淋淋的，散发出迷人的羞色，小声说：“上次买的那套内衣，我还没有穿过，到时候你带来，我穿上和你搞。</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>程宗扬心里一热。</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Cheng Zongyang felt a surge of warmth in his heart.</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>1boy, emotional warmth, heartfelt moment, young man, early 20s, (soft smile:1.5), casual attire, standing pose, front view, hands on chest, cozy indoor background</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>程宗扬心里一热。</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>叶紫玫在他唇上一吻，“我走了，你再睡一会儿。</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Ye Zimei kissed him on the lips. "I'm leaving—get some more sleep."</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>1girl, romantic moment, intimate gesture, (kiss on the lips:1.5), sleepy expression, (soft smile:1.2), nightwear, leaning forward, close-up view, dimly lit bedroom, early morning</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>叶紫玫在他唇上一吻，“我走了，你再睡一会儿。</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>随着她的离开，房间重新陷入黑暗。</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>With her departure, the room was swallowed by darkness once more.</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>1girl, sorrowful expression, long flowing hair, elegant dress, standing pose, dimly lit room, vanishing silhouette, (darkness enveloping:1.3), (emotional departure:1.2), side view, empty space</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>随着她的离开，房间重新陷入黑暗。</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>程宗扬并不担心工作。</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Cheng Zongyang wasn't worried about his job.</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>1boy, confident expression, office setting, business attire, sitting at desk, front view, relaxed posture, computer screen, modern workspace</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>程宗扬并不担心工作。</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>叶紫玫的父亲叶行南，是一家制药公司的老总，人面极广，有他出面，获得这份工作并不困难。</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Ye Zimei's father, Ye Xingnan, was the CEO of a pharmaceutical company with extensive connections. With him stepping in, landing the job wouldn't be difficult.</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>1girl, business setting, confident expression, professional attire, (CEO father in background:1.3), (pharmaceutical company:1.2), standing pose, front view, modern office background, networking scene</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>叶紫玫的父亲叶行南，是一家制药公司的老总，人面极广，有他出面，获得这份工作并不困难。</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>只是得到这份工作，就意味着他将成为一个小职员，慢慢地熬资历，像蚁巢中的工蚁一样，依照既定的轨道一成不变地走下去。</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Simply landing this job means he would become a low-level clerk, slowly climbing the seniority ladder, trudging along a predetermined path like a worker ant in its colony—unchanging and monotonous.</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>1boy, office setting, monotonous life, low level clerk, (worker ant metaphor:1.5), tired expression, plain white shirt, black trousers, sitting at desk, front view, typing on computer, dull office background</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>只是得到这份工作，就意味着他将成为一个小职员，慢慢地熬资历，像蚁巢中的工蚁一样，依照既定的轨道一成不变地走下去。</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>这样子作……真的可以吗？</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>"Is this really the right way to do it...?"</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>1girl, thoughtful expression, (long brown hair:1.3), (school uniform:1.2), sitting at desk, holding pen, (classroom background:1.1), front view, daylight  
+1boy, confused emotion, short black hair, hoodie and jeans, leaning against wall, (city street background:1.2), side view, evening light  
+1girl, 20 years old, cheerful smile, (blonde ponytail:1.3), sportswear, running in park, (sunset background:1.1), dynamic pose, low angle view  
+1boy, serious mood, glasses, business suit, standing with arms crossed, (office setting:1.2), high angle view, neutral lighting  
+1girl, shy demeanor, (wavy blue hair:1.4), summer dress, holding book, (library interior:1.1), mid shot, soft focus</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>这样子作……真的可以吗？</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>自己实在觉得很迷惘。</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>"I truly feel lost."</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>1girl, lost expression, sad emotion, young adult, (long brown hair:1.3), (teary eyes:1.2), casual outfit, standing pose, looking down, urban background, night time, (lonely atmosphere:1.1)</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>自己实在觉得很迷惘。</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>未出社会前，自己也曾雄心万丈，预备先存几年钱后，辞职自行创业，十几二十年后，说不定就能建立自己的企业王国。</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>"Before entering the real world, I was once full of grand ambitions—planning to save up for a few years, then quit my job to start my own business, dreaming that in a decade or two, I might even build my own corporate empire."</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>1boy, ambitious dreamer, (determined expression:1.4), young adult, (business casual attire:1.2), standing confidently, (city skyline background:1.1), front view, holding a briefcase, corporate empire vision</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>未出社会前，自己也曾雄心万丈，预备先存几年钱后，辞职自行创业，十几二十年后，说不定就能建立自己的企业王国。</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>那时候的豪情壮志，这么快就要在现实之前低头了吗？</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>"Was the passion and ambition of those days so quick to bow before reality?"</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>1girl, melancholic expression, (long flowing hair:1.5), vintage dress, (standing pose:1.2), looking into distance, sunset background, soft lighting, nostalgic atmosphere, (tearful eyes:1.3), windswept fabric, muted colors, contemplative mood, fading light, emotional depth, solitary figure, dreamy ambiance, pastel tones, wistful gaze, gentle breeze, horizon view</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>那时候的豪情壮志，这么快就要在现实之前低头了吗？</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>自己还曾在酒后发过豪语，哪怕不择手段，也要出人头地，成就事业，如今……不择手段的决心，甚至连月底房贷的压力都承受不起……程宗扬苦笑起来，觉得年少轻狂这四个字，真是很讽刺，尽管……自己横看竖看都还不算老。</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>"I once boasted while drunk that I’d stop at nothing to rise above others and achieve great things. But now... my resolve to do 'whatever it takes' can’t even withstand the pressure of paying the mortgage by month’s end..." Cheng Zongyang gave a bitter laugh, realizing how ironic the phrase "youthful recklessness" felt—even though, by any measure, he still wasn’t old.</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>1boy, bitter irony, youthful recklessness, mid 20s, (tired expression:1.4), (disheveled hair:1.2), wrinkled shirt, sitting pose, slumped shoulders, close up view, dimly lit apartment, holding beer bottle, (melancholic mood:1.3), financial stress</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>自己还曾在酒后发过豪语，哪怕不择手段，也要出人头地，成就事业，如今……不择手段的决心，甚至连月底房贷的压力都承受不起……程宗扬苦笑起来，觉得年少轻狂这四个字，真是很讽刺，尽管……自己横看竖看都还不算老。</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>一阵手机铃声突然响起。</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>A phone suddenly rang.</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>1girl, surprised expression, modern bedroom setting, phone ringing, (young adult:1.2), (wavy brown hair:1.1), casual pajamas, sitting on bed, front view, reaching for phone, warm lighting</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>一阵手机铃声突然响起。</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>“宗扬！</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>"Zong Yang!"</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>1boy, angry expression, young adult, short black hair, school uniform, clenched fists, front view, shouting, classroom background  
+1girl, surprised look, teenager, wavy brown hair, casual outfit, hands on cheeks, mid shot, looking at boy, school corridor setting  
+2boys, competitive mood, sports theme, athletic build, team jerseys, running pose, dynamic angle, racing each other, outdoor track field  
+1girl, shy demeanor, floral dress, shoulder length blonde hair, holding books, slight tilt head, over the shoulder view, library environment  
+1boy, determined face, cyberpunk style, neon highlights, futuristic armor, crouching stance, low angle, holding weapon, city rooftop at night</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>“宗扬！</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>我们约好打球的，你小子不会忘了吧？</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>"We agreed to play ball today—you didn't forget, did you?"</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>1boy, playful expression, sports theme, 10 years old, short brown hair, (baseball cap:1.3), (wearing jersey:1.2), holding baseball bat, mid shot, sunny park background, (smiling:1.4)  
+1girl, surprised reaction, outdoor activity, 9 years old, ponytail, (sporty outfit:1.3), hands on hips, front view, grassy field, (wide eyes:1.2)  
+2kids, excited mood, baseball game, mixed genders, (team uniforms:1.3), dynamic poses, low angle view, playground setting, (action shot:1.4)  
+1boy, determined look, competition theme, 12 years old, (sweatband:1.2), pitching stance, side view, dirt mound, (intense focus:1.5)  
+1girl, cheerful demeanor, friendship theme, 11 years old, (braided hair:1.3), waving hand, over the shoulder view, blue sky, (laughing:1.4)</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>我们约好打球的，你小子不会忘了吧？</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>小心我穿越了，你再想找我打球，就找不到了。</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>"Be careful, if I time-travel, you won't be able to find me to play ball anymore."</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>1girl, playful emotion, warning expression, holding a baseball, casual clothing, standing pose, slight frown, time travel theme, outdoor park background, side view, (long hair:1.3), (baseball cap:1.2)</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>小心我穿越了，你再想找我打球，就找不到了。</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>是段强，程宗扬从小的死党，一个富家公子哥，重度的小说动漫迷，对穿越类作品极度狂热。</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>This is Duan Qiang, Cheng Zongyang's childhood best friend—a wealthy playboy and an avid fan of novels and anime, especially obsessed with time-travel stories.</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>1boy, wealthy playboy, childhood best friend, cheerful expression, stylish casual wear, leaning pose, front view, holding a novel, urban background  
+1boy, anime fan, time travel obsession, excited smile, trendy outfit, sitting pose, side view, reading a book, library setting  
+1boy, Duan Qiang, Cheng Zongyang's friend, playful grin, fashionable clothes, relaxed stance, three-quarter view, holding a manga, modern apartment  
+1boy, rich and carefree, novel enthusiast, amused look, designer attire, casual pose, low angle, flipping pages, cafe environment  
+1boy, energetic personality, anime lover, joyful demeanor, sleek jacket, dynamic pose, over-the-shoulder view, discussing stories, neon-lit street</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>是段强，程宗扬从小的死党，一个富家公子哥，重度的小说动漫迷，对穿越类作品极度狂热。</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>从程宗扬认识他开始，段强就每天梦想着要穿越到另一个时空，开始一段完全不同的人生。</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Ever since Cheng Zongyang first met him, Duan Qiang had been dreaming daily of crossing over to another time and space to start a completely different life.</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>1boy, time travel theme, dreaming expression, young man, casual modern clothes, sitting pose, looking into distance, fantasy background, (dreamy eyes:1.3), (soft lighting:1.2)  
+1boy, alternate reality theme, pensive mood, dark hair, simple t-shirt, leaning forward, first person view, surreal landscape, (thoughtful gaze:1.4), (hazy atmosphere:1.1)  
+1boy, dimensional crossing theme, hopeful emotion, slim build, urban outfit, walking stance, over the shoulder shot, cityscape fading, (determined expression:1.3), (glowing portal:1.2)  
+1boy, life change theme, longing look, short hair, jeans and jacket, arms crossed, low angle view, starry sky, (wistful smile:1.3), (cosmic glow:1.1)  
+1boy, fantasy adventure theme, excited face, athletic body, traveler clothes, running motion, dynamic perspective, ancient ruins, (sparkling energy:1.4), (mystical fog:1.1)</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>从程宗扬认识他开始，段强就每天梦想着要穿越到另一个时空，开始一段完全不同的人生。</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>还是九岁的时候，段强告诉他，“你知道吗？</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>When Duan Qiang was just nine years old, he said to him, "You know what?"</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>1boy, 9 years old, curious expression, short black hair, casual t-shirt, sitting pose, front view, talking to someone, indoor background</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>还是九岁的时候，段强告诉他，“你知道吗？</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>每年全世界至少有四万人没有任何原因的失踪，就好比两个人正在说话，突然之间其中一个就凭空消失了，再也找不到一点痕迹。</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Every year, at least forty thousand people worldwide vanish without a trace—as if one moment they’re there, like two people mid-conversation, and the next, one simply disappears, leaving no evidence behind.</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>1girl, mysterious disappearance, shocked expression, long black hair, white dress, standing pose, mid conversation, urban night background, vanishing effect (depth effect:1.3), (glowing particles:1.2)  
+1boy, detective theme, serious demeanor, short brown hair, trench coat, holding flashlight, crouching pose, searching ground, foggy alley background, (dim lighting:1.4)  
+1girl 1boy, suspenseful atmosphere, confused and fearful, casual modern outfits, back to back, looking around, abandoned street setting, (shadows:1.3), (distant sirens:1.1)  
+1girl, supernatural theme, pale skin, flowing white gown, floating pose, arms outstretched, forest clearing background, (ethereal glow:1.5), (misty atmosphere:1.2)  
+1boy, thriller setting, determined gaze, messy dark hair, leather jacket, running pose, chasing unseen figure, rainy cityscape background, (motion blur:1.3)</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>每年全世界至少有四万人没有任何原因的失踪，就好比两个人正在说话，突然之间其中一个就凭空消失了，再也找不到一点痕迹。</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>你知道他们去哪里了吗？</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>"Do you know where they went?"</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>1girl, curious expression, young adult, (long brown hair:1.3), casual outfit, looking around, (urban street background:1.2), daytime, side view, slight tilt head</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>你知道他们去哪里了吗？</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>程宗扬摇摇头。</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Cheng Zongyang shook his head.</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>1boy, disappointed emotion, young adult, short black hair, plain white shirt, sitting pose, shaking head, front view, minimalist background</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>程宗扬摇摇头。</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>“他们是穿越了！</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>"They've traveled through time!"</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>1girl, time travel theme, excited expression, futuristic outfit, (sparkling eyes:1.4), (dynamic pose:1.3), running action, cityscape background, (glowing effects:1.2), side view  
+1boy, adventure theme, determined look, explorer clothing, (rugged boots:1.3), holding a map, (standing pose:1.1), jungle background, distant ruins, over the shoulder view  
+2girls, sci fi setting, surprised emotions, matching jumpsuits, (shiny accessories:1.2), back to back pose, (floating in air:1.3), space station background, zero gravity effects  
+1girl 1boy, historical theme, curious faces, vintage clothing, (detailed embroidery:1.3), walking together, cobblestone street, (old town background:1.1), sunny daylight  
+1girl, fantasy theme, magical aura, elegant dress, (flowing hair:1.5), casting spell pose, enchanted forest, glowing runes, front view</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>“他们是穿越了！</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>到了另外一个时空！</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>"Entered a whole different dimension!"</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>1girl, excited expression, (sparkling eyes:1.4), futuristic outfit, floating pose, (cosmic background:1.3), dynamic lighting, arms outstretched, glowing particles, sci fi theme, vibrant colors, full body view, energy waves, surreal atmosphere</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>到了另外一个时空！</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>段强得意地说：“我在书上看到过，在我们这个世界之外，还有许多平行世界，当其中一个世界与我们这个世界发生联系时，就会产生穿越现象。</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Duan Qiang said smugly, "I’ve read in books that beyond our world, there are many parallel universes. When one of them connects with ours, it can cause a crossover phenomenon."</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>1boy, smug expression, parallel universes theme, young adult, (smirking face:1.3), casual modern clothing, leaning forward pose, (explaining gesture:1.2), medium close up, futuristic library background</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>段强得意地说：“我在书上看到过，在我们这个世界之外，还有许多平行世界，当其中一个世界与我们这个世界发生联系时，就会产生穿越现象。</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>“是吗？</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>"Oh really?"</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>1girl, surprised expression, (long black hair:1.5), casual dress, standing pose, front view, hands on hips, indoor background, bright lighting  
+1boy, skeptical look, short brown hair, school uniform, leaning forward, side view, classroom setting, questioning gesture  
+2girls, excited reaction, (blonde and brunette:1.3), summer outfits, sitting together, over the shoulder view, park background, laughing  
+1girl, playful smile, curly pink hair, sporty outfit, jumping pose, low angle view, playground setting, dynamic motion  
+1boy, confused face, glasses, hoodie, sitting pose, front view, desk background, thinking gesture, dim lighting</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>“是吗？</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>“你听说过没有？</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>"Have you heard?"</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>1girl, curious expression, (long black hair:1.3), school uniform, classroom setting, leaning forward, whispering, front view, (bright eyes:1.2), sunlight through windows</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>“你听说过没有？</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>有个人在路上走着，突然被一道紫色的闪电劈中，等他醒过来的时候，发现自己竟然回到了古代！</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>A man was walking down the road when suddenly, a bolt of purple lightning struck him. When he woke up, he found himself transported back to ancient times!</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>1man, time travel theme, shocked expression, modern clothing, (purple lightning strike:1.5), standing pose, front view, ancient times background, disoriented action  
+1man, fantasy theme, dazed emotion, casual outfit, (transportation effect:1.3), fallen pose, low angle view, rocky road setting, awakening action  
+1man, historical setting, confused face, simple attire, (lightning impact:1.4), kneeling pose, wide shot perspective, ancient village background, looking around action</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>有个人在路上走着，突然被一道紫色的闪电劈中，等他醒过来的时候，发现自己竟然回到了古代！</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>从那以后，每到下雨的时候，段强都坚持不打伞。</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>From then on, whenever it rained, Duan Qiang insisted on not using an umbrella.</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>1boy, rainy day, determined expression, young adult, (black hair:1.3), (simple jacket:1.2), walking pose, front view, urban street background, no umbrella</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>从那以后，每到下雨的时候，段强都坚持不打伞。</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>“还有一个人，乘电梯的时候，一打开电梯门，发现自己来到另外一个世界。</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>"Another person stepped into an elevator, and when the doors opened, they found themselves in a completely different world."</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>1person, elevator scene, surreal world, surprised expression, modern clothing, standing pose, front view, stepping out, futuristic cityscape  
+1girl, fantasy setting, wide eyed wonder, flowing dress, arms outstretched, low angle view, exploring, enchanted forest  
+1boy, sci fi theme, shocked emotion, hoodie and jeans, hand on door, over the shoulder, entering, alien landscape  
+1woman, mystery atmosphere, cautious gaze, business suit, leaning forward, first person perspective, discovering, ancient ruins  
+1man, adventure concept, awestruck face, explorer outfit, walking pose, side profile, emerging, floating islands  
+2people, cosmic horror, terrified reactions, casual wear, clinging together, wide shot, trapped, endless void  
+1girl, magical realism, joyful smile, school uniform, jumping pose, bird's eye view, arriving, candy colored town  
+1boy, cyberpunk world, determined look, neon jacket, crouching stance, close up, investigating, digital dimension</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>“还有一个人，乘电梯的时候，一打开电梯门，发现自己来到另外一个世界。</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>然后他遇到一个老人，才知道自己到了魔法世界。</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Then he met an old man and realized he had entered a magical world.</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>1boy, magical encounter, old man, (wise expression:1.3), (wizard robe:1.2), (walking pose:1.1), front view, enchanted forest background, mysterious atmosphere</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>然后他遇到一个老人，才知道自己到了魔法世界。</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>那天段强坐了一整天电梯，坚持在每一层都要打开看看，看是不是穿越到了另外一个世界。</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>That day, Duan Qiang spent the entire day riding the elevator, insisting on opening the doors at every floor to check if he had crossed over into another world.</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>1boy, surreal theme, anxious expression, young adult, plain t-shirt, jeans, (pressing elevator buttons:1.3), front view, (elevator interior:1.2), repetitive action, dim lighting</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>那天段强坐了一整天电梯，坚持在每一层都要打开看看，看是不是穿越到了另外一个世界。</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>害得那家公司所有人都陪着他一层一层上下。</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>As a result, everyone in the company had to go up and down the floors with him.</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>1boy, office setting, daily routine, tired expression, business suit, walking pose, side view, elevator background, (repetitive action:1.3), (crowded space:1.2)  
+1girl, professional attire, stressed emotion, high heels, holding documents, front view, corporate environment, (busy atmosphere:1.4), (fluorescent lighting:1.1)  
+group of employees, mixed genders, frustrated mood, formal wear, waiting pose, mid view, stairwell background, (time pressure:1.3), (monotony:1.2)  
+1man, middle aged, exhausted face, wrinkled shirt, leaning pose, low angle view, office building lobby, (endless stairs:1.5), (dim lighting:1.1)  
+1woman, young adult, annoyed expression, pencil skirt, crossing arms, over shoulder view, open plan office, (delayed elevator:1.4), (noisy chatter:1.1)</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>害得那家公司所有人都陪着他一层一层上下。</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>假如他父亲不是公司的董事，保安早就把这个捣乱的孩子请出去了。</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>If his father weren't a company director, the security guards would have thrown this troublemaker out long ago.</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>1boy, arrogant expression, wealthy background, (suit:1.3), leaning pose, security guards, corporate lobby, (threatening gesture:1.2), front view, modern office setting</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>假如他父亲不是公司的董事，保安早就把这个捣乱的孩子请出去了。</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>幸好段强只玩了一天，因为他第二天发现，学校也有一个穿越点。</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Fortunately, Duan Qiang only played for one day, because the next day he discovered that there was also a portal at his school.</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>1boy, school setting, surprised expression, teenage student, (school uniform:1.2), standing pose, discovering portal, daytime background, (curious emotion:1.3), front view</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>幸好段强只玩了一天，因为他第二天发现，学校也有一个穿越点。</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>“你发现没有？</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>"Have you noticed?"</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>1girl, curious expression, (long black hair:1.5), school uniform, classroom setting, looking around, (slight smile:1.2), front view, daylight background  
+1boy, surprised emotion, short brown hair, sports jersey, playground theme, running pose, side angle, action shot, sunny weather  
+1girl 1boy, playful interaction, (colorful outfits:1.3), park environment, laughing together, sitting on grass, low angle view, autumn leaves  
+1girl, melancholic mood, wavy blonde hair, vintage dress, (lonely bench pose:1.4), sunset backdrop, soft lighting, distant gaze  
+1boy, focused demeanor, glasses, science lab theme, (white lab coat:1.3), writing notes, close up view, equipment filled background</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>“你发现没有？</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>隔壁班的小胖不见了！</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>"Xiao Pang from the next class is missing!"</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>1boy, school setting, worried expression, chubby face, school uniform, sitting at desk, front view, looking around, classroom background, (searching:1.3), (tense atmosphere:1.2)</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>隔壁班的小胖不见了！</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>段强神秘兮兮地告诉他，“我最后一次见到他，他正在爬学校的窗户。</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Duan Qiang said mysteriously, "The last time I saw him, he was climbing through the school window."</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>1boy, mysterious expression, school setting, climbing through window, teenage boy, (dark hair:1.3), (casual school uniform:1.2), (determined look:1.1), dynamic pose, side view, nighttime background, dim lighting</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>段强神秘兮兮地告诉他，“我最后一次见到他，他正在爬学校的窗户。</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>然后他就再也没有出现过！</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>"And then he never showed up again!"</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>1boy, disappointed expression, young adult, (messy brown hair:1.3), casual outfit, urban setting, walking away, side view, nighttime, streetlights  
+1girl, shocked reaction, early 20s, (blonde ponytail:1.2), office attire, sitting pose, front view, empty cafe, afternoon  
+1boy, angry emotion, teenager, (hoodie:1.1), hands in pockets, low angle view, rainy day, bus stop  
+1girl, sad mood, long black hair, school uniform, leaning against wall, back view, classroom, sunset  
+1boy, surprised face, short curly hair, sports jersey, running pose, dynamic angle, soccer field, daytime  
+1girl, lonely feeling, middle aged, (worn out dress:1.4), sitting on bench, top down view, park, autumn leaves  
+1boy, determined look, muscular build, workout clothes, lifting weights, close up view, gym, bright lighting  
+1girl, joyful smile, child, colorful dress, jumping pose, low perspective, playground, sunny weather  
+1boy, tired eyes, elderly man, wrinkled shirt, slumped posture, side profile, dimly lit room, evening  
+1girl, curious gaze, glasses, science lab coat, holding beaker, high angle view, laboratory, equipment background</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>然后他就再也没有出现过！</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>他肯定是穿越了！</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>"He must have traveled through time!"</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>1boy, time traveler, surprised expression, (wearing futuristic suit:1.3), (sparkling time portal:1.2), running pose, dynamic angle, city background at night</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>他肯定是穿越了！</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>于是段强每天都要爬那个窗户。</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>So, Duan Qiang had to climb through that window every day.</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>1boy, daily routine, determined expression, young teenager, (climbing through window:1.5), casual clothes, (dynamic pose:1.2), side view, school building background, afternoon light</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>于是段强每天都要爬那个窗户。</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>作为他的死党，程宗扬也只好每天陪着他爬。</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>As his best friend, Cheng Zongyang had no choice but to join him in climbing every day.</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>1boy, best friend relationship, daily climbing routine, reluctant expression, athletic build, sportswear, standing on mountain trail, side view, carrying backpack, rocky mountain background  
+1boy, loyal companion, determined mood, lean physique, hiking gear, walking pose, front view, supporting friend, forest trail setting  
+2boys, friendship theme, tired but persistent, young adults, outdoor clothing, climbing together, low angle shot, helping each other, sunrise mountain scenery  
+1boy, supportive role, mixed emotions, muscular body, windbreaker jacket, stretching pose, over the shoulder view, preparing to climb, cloudy sky backdrop  
+1boy, reluctant participant, annoyed expression, average height, sweatpants and tshirt, sitting on rock, rear view, taking break, steep cliff behind</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>作为他的死党，程宗扬也只好每天陪着他爬。</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>直到他们听说小胖原来是转校才放弃。</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>They only gave up after finding out that Little Pang had actually transferred schools.</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>1girl, school setting, surprised expression, (short black hair:1.3), school uniform, sitting at desk, front view, looking at transfer papers, classroom background  
+1boy, sad emotion, (messy hair:1.2), casual clothes, slouching posture, side angle, holding backpack, empty school hallway  
+2students, confused reaction, teenage appearance, uniforms, standing pose, mid range shot, talking to teacher, school office backdrop  
+1girl, determined look, ponytail, sportswear, walking pose, low angle view, carrying books, school courtyard scene  
+1teacher, concerned face, glasses, formal attire, leaning forward, over the shoulder perspective, holding documents, faculty room environment</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>直到他们听说小胖原来是转校才放弃。</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>挂断电话，程宗扬忽然发现，自己挺怀念这个老友的。</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>After hanging up the phone, Cheng Zongyang suddenly realized how much he missed his old friend.</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>1man, melancholy emotion, mid 30s, business casual attire, sitting pose, holding phone, dimly lit room, nostalgic atmosphere, (pensive expression:1.3), (soft lighting:1.2), window view</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>挂断电话，程宗扬忽然发现，自己挺怀念这个老友的。</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>也好，就打场球散散心吧。</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>"Alright, let’s play a game to unwind then."</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>1girl, relaxed mood, casual game, young adult, shoulder length brown hair, (smiling softly:1.3), cozy sweater, sitting cross legged, front view, holding controller, living room background, warm lighting</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>也好，就打场球散散心吧。</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>赶到篮球馆，段强已经开始热身了。</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>When I arrived at the basketball gym, Duan Qiang was already warming up.</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>1boy, basketball gym, warming up, athletic build, focused expression, sports jersey, dribbling pose, mid shot, dynamic action, indoor court background  
+1boy, Duan Qiang, basketball theme, tall and muscular, determined look, sleeveless jersey, shooting stance, front view, practicing jumpshot, gym lighting  
+1boy, sports setting, energetic vibe, short black hair, sweat on face, tank top and shorts, running pose, low angle, fast movement, wooden floor  
+1boy, athletic activity, competitive mood, toned arms, intense eyes, headband and wristbands, crouching stance, side perspective, dribbling ball, stadium seats  
+1boy, basketball practice, young adult, confident demeanor, loose shorts, mid air jump, three point line, back view, scoring attempt, hoop net  
+1boy, gym environment, physical training, lean physique, serious face, sneakers and socks, stretching pose, close up, preparing game, scoreboard  
+1boy, team sports, active motion, buzzed haircut, breathless expression, knee pads, defensive posture, wide angle, guarding opponent, bleachers  
+1boy, pre game routine, dynamic movement, tanned skin, concentrated gaze, arm sleeve, layup action, over shoulder shot, fast break, court markings  
+1boy, athletic performance, powerful stance, defined muscles, gritted teeth, fingerless gloves, rebounding pose, bird's eye view, jumping high, backboard  
+1boy, sports competition, quick reflexes, sweat dripping, compression shirt, pivoting feet, Dutch angle, stealing ball, crowd blur</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>赶到篮球馆，段强已经开始热身了。</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>“宗扬，看我的三分！</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>"Zongyang, check out my three-pointer!"</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>1boy, basketball theme, excited expression, young athlete, sports jersey, shooting pose, dynamic action, mid range view, outdoor court background  
+1girl, cheering, ponytail, sporty outfit, waving arms, front view, sunny day, crowd in stands  
+1boy, confident smile, muscular build, basketball shorts, dribbling stance, low angle shot, gymnasium setting  
+1girl, determined look, sweatband, holding ball, ready to shoot, close up, indoor stadium lights  
+1boy, team spirit, high five, sneakers, jumping, side angle, hardwood floor, scoreboard in back  
+1girl, playful grin, tank top, stretching, over the shoulder view, park basketball court  
+1boy, focused eyes, headband, defensive posture, zoomed in, evening game, floodlights  
+1girl, happy shout, shorts, running, wide shot, school playground, friends watching</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>“宗扬，看我的三分！</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>段强跳起来一投，竟然是一个漂亮的空心入网。</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Duan Qiang leaped up and took the shot—swish! The ball went straight through the net without even touching the rim.</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>1boy, basketball action, energetic, athletic build, (jumping pose:1.5), (sweat on face:1.2), sports jersey, shooting ball, close up view, basketball court background, swish sound effect</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>段强跳起来一投，竟然是一个漂亮的空心入网。</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>“怎么样！</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>"How about that!"</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>1girl, surprised expression, (sparkling eyes:1.3), short blonde hair, casual dress, (hands on hips:1.2), front view, urban street background, slight smile, sunny day</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>“怎么样！</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>“再投一个，如果还能中，我就请你吃饭！</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>"Take another shot—if you make it again, I’ll treat you to dinner!"</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>1girl, playful mood, smiling, casual outfit, holding basketball, mid shot, outdoor court, evening light, (long hair:1.3), (sneakers:1.1), dynamic pose</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>“再投一个，如果还能中，我就请你吃饭！</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>“投就投！</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>"Just go for it and invest!"</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>1girl, excited expression, (investment theme:1.3), young adult, (professional attire:1.2), standing confidently, (holding documents:1.1), front view, modern office background, motivational atmosphere</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>“投就投！</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>段强拿起球，又是一记三分。</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Duan Qiang grabbed the ball and sank another three-pointer.</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>1boy, basketball game, determined expression, athletic build, jersey and shorts, shooting pose, mid range view, sinking three pointer, indoor court background</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>段强拿起球，又是一记三分。</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>结果力量不足，球还没碰到篮筐就掉了下去。</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>The shot fell short, and the ball dropped before reaching the hoop.</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>1boy, basketball court, disappointed expression, young athlete, (sweaty face:1.3), sports jersey, (jumping pose:1.2), mid action, side view, gymnasium background  
+1girl, basketball game, frustrated emotion, teenage player, (short hair:1.1), athletic shorts, (reaching pose:1.1), dynamic angle, indoor court background  
+1boy, sports moment, determined look, tall figure, (muscular build:1.2), basketball uniform, (dunking pose:1.3), low angle view, stadium lighting background  
+1girl, team sport, focused expression, ponytail hairstyle, (sleeveless jersey:1.1), (running pose:1.1), front view, wooden floor background  
+1boy, competitive scene, anxious feeling, sweat droplets, (headband:1.1), (shooting pose:1.2), three point line, crowd background</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>结果力量不足，球还没碰到篮筐就掉了下去。</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>两个人都笑了起来。</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Both of them laughed.</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>1girl, 1boy, laughing together, happy expression, casual outfit, standing side by side, front view, outdoor park background, sunny day, natural lighting</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>两个人都笑了起来。</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>“还是蒙的啊。</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>"Still just a lucky guess."</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>1girl, playful smirk, (short wavy hair:1.3), casual outfit, guessing game theme, leaning forward, (excited expression:1.2), medium close up, indoor cafe background, holding playing cards</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>“还是蒙的啊。</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>“你蒙个让我看看。</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>"Take a guess for me."</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>1girl, curious expression, young adult, (long wavy hair:1.4), casual outfit, (leaning forward:1.2), indoor setting, soft lighting, slight smile, eye contact, warm tones, (playful gesture:1.1), medium shot</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>“你蒙个让我看看。</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>程宗扬换了球鞋，跳起来活动了一下手脚。</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Cheng Zongyang changed into sneakers, then jumped up and stretched his limbs.</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>1boy, athletic theme, young adult, energetic expression, sneakers, (jumping pose:1.3), stretching limbs, dynamic action, side view, urban park background</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>程宗扬换了球鞋，跳起来活动了一下手脚。</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>然后拿起球，在三分线外一记远投，球碰在篮筐上，高高弹起。</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Then he grabbed the ball and launched a long shot from beyond the three-point line. The ball hit the rim and bounced high into the air.</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>1boy, basketball game, intense focus, young athlete, (jersey and shorts:1.3), (jumping pose:1.2), mid action, (long shot:1.1), three point line, gymnasium background, crowd watching</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>然后拿起球，在三分线外一记远投，球碰在篮筐上，高高弹起。</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>“找到工作没有？</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>"Have you found a job yet?"</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>1girl, job interview theme, nervous expression, professional attire, sitting pose, front view, holding resume, office background  
+1boy, job search theme, frustrated emotion, casual clothing, standing pose, side view, looking at phone, urban street background  
+1girl, excited expression, (new job celebration:1.3), stylish outfit, holding coffee cup, cafe background, smiling face  
+1boy, tired emotion, (wearing suit:1.2), sitting at desk, computer screen, home office background, late night  
+1girl, confident pose, (business formal wear:1.4), speaking to interviewer, conference room background, professional setting  
+1boy, unemployed theme, sad expression, messy hair, hoodie and jeans, sitting on couch, apartment background  
+1girl, happy emotion, (holding acceptance letter:1.3), university graduate, campus background, wearing graduation gown  
+1boy, determined expression, (typing on laptop:1.2), job application process, home office setup, focused attitude  
+1girl, anxious face, waiting room setting, (fidgeting with hands:1.1), formal dress, job interview scenario  
+1boy, relieved emotion, (signing contract:1.4), corporate office background, professional attire, shaking hands</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>“找到工作没有？</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>段强和他无话不谈，知道他现在失业。</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>"Duan Qiang was his confidant and knew he was currently unemployed."</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>1boy, unemployed, confidant, serious expression, casual wear, sitting pose, front view, talking, indoor background  
+1girl, young adult, supportive friend, warm smile, stylish outfit, standing pose, side view, listening, cozy cafe setting  
+1boy, mid 20s, thoughtful gaze, relaxed clothing, leaning pose, three quarter view, discussing, urban park backdrop  
+1girl, early 30s, empathetic, professional attire, crossed arms, low angle shot, advising, office environment  
+1boy, slim build, concerned look, hoodie and jeans, slouched posture, over the shoulder view, contemplating, dimly lit room</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>段强和他无话不谈，知道他现在失业。</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>“没有。</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>"No."</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>1girl, negative emotion, short black hair, school uniform, sitting pose, front view, empty classroom background</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>“没有。</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>到处都在裁员。</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>"Layoffs are happening everywhere."</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>1woman, office setting, stressed expression, (professional attire:1.3), sitting at desk, (head in hands:1.2), front view, computer screen background, paperwork scattered  
+1man, city street, worried face, (business suit:1.2), walking quickly, (looking down:1.1), side view, crowded urban background, dark sky  
+1girl, home interior, sad emotion, (hoodie and jeans:1.1), curled up on couch, (holding phone:1.3), close up view, dim lighting, empty room  
+1boy, park bench, depressed mood, (casual wear:1.1), slouched posture, (staring into distance:1.2), medium shot, autumn leaves background, overcast weather  
+2women, coffee shop, anxious conversation, (office clothes:1.2), leaning forward, (whispering:1.1), high angle view, blurred background, coffee cups on table  
+1man, subway train, exhausted expression, (wrinkled shirt:1.1), holding onto pole, (eyes closed:1.3), low angle view, crowded train interior, fluorescent lighting  
+1woman, empty office, tearful face, (formal blazer:1.2), packing box, (holding photo frame:1.4), side profile view, cardboard boxes background, sunset through window</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>到处都在裁员。</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>“失业有什么大不了的。</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>"What's the big deal about being unemployed?"</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>1girl, unemployed theme, frustrated expression, messy brown hair, loose sweater, sitting on couch, front view, holding job application, dimly lit apartment background  
+1boy, job search theme, determined look, short black hair, wrinkled shirt, leaning on desk, side view, typing on laptop, cluttered room background  
+1girl, emotional theme, tearful eyes, blonde ponytail, oversized hoodie, hugging knees, low angle view, staring at phone, empty street background  
+1boy, hopeless mood, unshaven face, faded t-shirt, slouched posture, back view, holding head in hands, rainy window background  
+1girl, motivational theme, confident smile, curly hair, professional blazer, standing pose, front view, holding resume, bright office background  
+1boy, depressed emotion, tired eyes, messy hair, wrinkled suit, sitting on stairs, side view, holding rejection letter, cloudy sky background  
+1girl, resilience theme, hopeful gaze, braided hair, casual jeans, walking pose, front view, carrying briefcase, city park background  
+1boy, exhausted mood, dark circles, untied tie, lying on bed, top view, covering face with arm, dark bedroom background</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>“失业有什么大不了的。</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>段强不在乎地说：“我到现在也没有工作，不也过得好好的。</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Duan Qiang said nonchalantly, "I still don’t have a job, and I’m doing just fine."</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>1boy, casual attitude, unemployed, relaxed expression, short black hair, plain t-shirt, sitting pose, front view, urban street background, (nonchalant demeanor:1.3), (carefree vibe:1.2)</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>段强不在乎地说：“我到现在也没有工作，不也过得好好的。</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>程宗扬一个三步上篮，投中两分，然后说：“大老板的少爷，你何时需要工作？</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Cheng Zongyang made a layup, scoring two points, then said, "Young master of the big boss, when do you need to work?"</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>1boy, basketball court setting, sports theme, young master, confident expression, (sweaty face:1.3), (athletic wear:1.2), layup pose, mid action, (dynamic angle:1.1), indoor stadium background</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>程宗扬一个三步上篮，投中两分，然后说：“大老板的少爷，你何时需要工作？</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>等你有吃饭压力的时候再跟我说吧。</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>"Talk to me when you're actually struggling to put food on the table."</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>1girl, angry expression, struggling financially, young adult, messy hair, worn out clothes, sitting at table, empty plate, dim lighting, small apartment, (frustrated emotion:1.5), (tired eyes:1.2), clenched fists, low angle view</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>等你有吃饭压力的时候再跟我说吧。</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>段强耸了耸肩。</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Duan Qiang shrugged.</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>1boy, indifferent expression, casual clothing, shrugging pose, medium shot, neutral background, simple action, daily life theme, young adult age</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>段强耸了耸肩。</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>他老爸的企业迟早要交给他，但看老爸的样子，至少还能干二十年，段强也就安心作个二世祖，对工作毫无兴趣。</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>His father's business would eventually be handed over to him, but seeing how fit his dad still was—good for at least another twenty years—Duan Qiang was content to live the carefree life of a rich heir, showing no interest in work whatsoever.</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>1boy, rich heir, carefree lifestyle, indifferent expression, young adult, stylish casual wear, lounging pose, front view, urban luxury background, father's business in distance</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>他老爸的企业迟早要交给他，但看老爸的样子，至少还能干二十年，段强也就安心作个二世祖，对工作毫无兴趣。</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>“我新交了个女朋友，晚上一起吃饭吧。</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>"I've got a new girlfriend, let's have dinner together tonight."</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>1boy, happy expression, 1girl, young couple, romantic dinner, (smiling face:1.3), casual outfit, sitting at table, front view, holding hands, restaurant background, warm lighting</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>“我新交了个女朋友，晚上一起吃饭吧。</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>“不行。</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>"No."</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>1girl, neutral emotion, short black hair, simple dress, standing pose, front view, plain background</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>“不行。</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>我下午的飞机。</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>"My flight is this afternoon."</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>1girl, airport setting, travel theme, anxious emotion, (young adult:1.2), (suitcase in hand:1.3), casual outfit, standing pose, front view, busy background, flight departure board</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>我下午的飞机。</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>“飞机？ 去哪儿？</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>"Plane? Where to?"</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>1girl, curious expression, airport setting, (short brown hair:1.3), casual travel outfit, holding suitcase, front view, looking around, (busy terminal background:1.2)  
+1boy, surprised emotion, urban street, (messy black hair:1.4), hoodie and jeans, pointing upwards, low angle, (plane in sky:1.3), cloudy weather  
+1girl 1boy, excited mood, travel theme, (backpacks:1.2), standing together, pointing at departure board, medium shot, (airport interior:1.1), bright lighting  
+1girl, thoughtful pose, train station, (long wavy hair:1.3), cozy sweater, sitting on bench, side profile, (holding ticket:1.1), blurred crowd background  
+1boy, adventurous vibe, mountain scenery, (windblown hair:1.4), hiking gear, walking pose, far view, (sunset sky:1.2), rocky trail</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>“飞机？ 去哪儿？</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>“上海。</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>"Shanghai."</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>1girl, urban setting, modern cityscape, young adult, (stylish outfit:1.3), confident expression, walking pose, front view, Shanghai skyline background, (neon lights:1.2), bustling streets</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>“上海。</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>有一个面试机会，我要去一趟。</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>"I have a job interview, so I need to go."</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>1girl, job interview, professional attire, confident expression, (blazer:1.3), (standing pose:1.2), office background, holding resume, front view, natural lighting, subtle smile</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>有一个面试机会，我要去一趟。</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>“不是吧？</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>"No way?"</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>1girl, surprised expression, (wide eyes:1.3), (open mouth:1.2), short brown hair, casual outfit, standing pose, front view, hands on hips, indoor background  
+1boy, skeptical look, raised eyebrow, crossed arms, dark blue hoodie, leaning pose, side view, urban street background  
+2girls, laughing together, (joyful smiles:1.4), summer dresses, sitting on grass, sunny park background  
+1girl, determined gaze, (focused eyes:1.3), athletic wear, running pose, dynamic angle, track field background  
+1boy, shy demeanor, (blushing cheeks:1.2), school uniform, holding books, classroom background</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>“不是吧？</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>段强怪叫了起来，“你走了我怎么办呢？</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Duan Qiang cried out in alarm, "What am I supposed to do if you leave?"</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>1boy, distressed emotion, (crying out:1.5), young adult, short black hair, casual outfit, standing pose, front view, reaching out, empty room background  
+1girl, surprised reaction, (alarmed expression:1.4), shoulder length brown hair, simple dress, sitting pose, side view, holding hands, dimly lit background  
+1boy, desperate plea, (teary eyes:1.3), messy hair, loose shirt, kneeling pose, low angle view, outstretched arms, blurred doorway background  
+1girl, comforting gesture, soft smile, long wavy hair, cozy sweater, leaning forward, close up view, patting shoulder, warm home interior background  
+1boy, lonely figure, slumped shoulders, unkempt appearance, wrinkled clothes, sitting on floor, top down view, hugging knees, shadowy corner background</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>段强怪叫了起来，“你走了我怎么办呢？</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>程宗扬啼笑皆非。</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Cheng Zongyang didn't know whether to laugh or cry.</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>1boy, mixed emotions, young adult, (wry smile:1.3), casual attire, sitting pose, front view, shaking head, indoor background</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>程宗扬啼笑皆非。</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>段强是他最要好的朋友，如果面试顺利的话，以后两人见面的机会就少了。</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>"Duan Qiang is his closest friend. If the interview goes well, they won’t get to see each other as often from now on."</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>1boy, close friends, emotional farewell, young adult, (sad expression:1.5), casual outfit, sitting pose, facing each other, interview setting, office background  
+1girl, best friends, bittersweet moment, 20 years old, (long black hair:1.3), stylish clothing, standing pose, side view, talking, urban cafe background  
+2people, friendship theme, heartfelt conversation, mixed emotions, (warm smiles:1.2), modern attire, relaxed posture, front view, holding coffee cups, cozy interior background  
+1boy, professional setting, future separation, determined look, formal wear, leaning forward, eye contact, (serious tone:1.4), glass window background  
+1girl, supportive friend, encouraging words, soft gaze, trendy outfit, hand gesture, slight tilt head, (natural lighting:1.1), minimalist room background</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>段强是他最要好的朋友，如果面试顺利的话，以后两人见面的机会就少了。</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>“什么工作要跑那么远？</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>"What kind of job requires going that far?"</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>1girl, questioning expression, office setting, professional attire, sitting at desk, medium shot, looking at documents, modern workspace, (serious demeanor:1.3), (blonde hair:1.2), (glasses:1.1)  
+1boy, surprised reaction, outdoor adventure, hiking gear, standing pose, full body view, holding map, mountain background, (confused expression:1.4), (backpack:1.2), (windy weather:1.1)  
+1girl 1boy, intense discussion, laboratory environment, lab coats, standing opposite each other, close up, holding test tubes, futuristic equipment, (focused faces:1.5), (scientific theme:1.3), (bright lighting:1.1)  
+1girl, determined look, construction site, safety helmet, kneeling pose, low angle view, fixing machinery, industrial background, (strong posture:1.4), (dirty gloves:1.2), (sunset lighting:1.1)  
+1boy, exhausted emotion, hospital setting, doctor scrubs, sitting on chair, front view, holding clipboard, busy corridor, (tired eyes:1.5), (stethoscope:1.2), (fluorescent lights:1.1)</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>“什么工作要跑那么远？</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>段强不满地说。</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>"Not happy about it, Duan Qiang said."</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>1boy, unhappy expression, young adult, short black hair, casual modern outfit, standing pose, front view, arms crossed, urban street background</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>段强不满地说。</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>“大概是文字翻译的校对吧。</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>"Probably proofreading the text translation."</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>1girl, proofreading text, focused expression, (glasses:1.3), (neat blouse:1.2), sitting at desk, close up view, holding pen, (office background:1.1)</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>“大概是文字翻译的校对吧。</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>“这种工作你也干啊？</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>"You actually do this kind of work?"</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>1girl, surprised expression, office setting, professional attire, sitting at desk, holding documents, front view, modern workspace, (wide eyes:1.3), (blonde hair:1.2), (business suit:1.1)</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>“这种工作你也干啊？</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>一点意思都没有，你大学时候念的书呢？</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>"This is utterly pointless. What happened to all the books you read in college?"</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>1girl, frustrated expression, college student, (long brown hair:1.3), (casual outfit:1.2), sitting at desk, holding head in hands, piles of books around, dimly lit room, (cluttered background:1.1), front view</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>一点意思都没有，你大学时候念的书呢？</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>都用不上吗？</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>"None of them are useful?"</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>1girl, disappointed expression, (sad eyes:1.3), young adult, (messy hair:1.2), casual wear, sitting pose, (empty room background:1.1), low angle view, holding useless objects, dull lighting  
+1boy, frustrated mood, teenage boy, (tousled black hair:1.3), hoodie and jeans, leaning pose, cluttered desk, front view, examining broken tools, dim indoor setting  
+2girls, confused emotions, (twins:1.2), similar outfits, shoulder length hair, standing back to back, classroom environment, side view, shrugging gestures, chalkboard background  
+1girl, annoyed face, (crossed arms:1.3), office worker, formal attire, high ponytail, (empty workspace:1.1), eye level perspective, tapping foot, modern office backdrop  
+1boy, hopeless demeanor, (slouched posture:1.2), teenager, wrinkled clothes, short curly hair, park bench setting, distant gaze, overcast sky, holding useless items</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>都用不上吗？</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>“我大学念的是英文，这已经算不上什么专业，毕业论文交的是古战史研究，那是个人兴趣，也用不在职场上啊！</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>"I majored in English in college, which hardly counts as a specialized field these days. My thesis was on ancient warfare history—just a personal interest—and it’s not exactly useful in the job market!"</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>1girl, college student, frustrated expression, (long brown hair:1.3), (casual outfit:1.2), sitting at desk, holding thesis paper, (ancient books background:1.1), side view, studying</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>“我大学念的是英文，这已经算不上什么专业，毕业论文交的是古战史研究，那是个人兴趣，也用不在职场上啊！</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>其实。</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Actually.</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>1girl, surprised expression, (blue eyes:1.3), (wavy brown hair:1.2), school uniform, sitting pose, classroom setting, looking at camera, (natural lighting:1.1)  
+1boy, focused emotion, (short black hair:1.2), hoodie and jeans, running pose, park background, side view, (motion blur:1.1)  
+2girls, laughing together, (blonde hair:1.3), (brunette hair:1.2), summer dresses, holding hands, beach sunset, (warm colors:1.1)  
+1girl, shy emotion, (glasses:1.2), pink sweater, reading pose, library background, soft lighting, (book details:1.1)  
+1boy, angry expression, (spiky hair:1.3), sports jersey, shouting pose, stadium background, crowd blur, (dynamic angle:1.2)</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>其实。</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>程宗扬心里早有动摇，难道真要一辈子当个小职员吗？</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Cheng Zongyang had long been wavering in his heart—was he really going to spend his whole life as a lowly office worker?</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>1boy, office worker, hesitant emotion, young adult, (plain clothing:1.2), sitting at desk, front view, staring into distance, dull office background</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>程宗扬心里早有动摇，难道真要一辈子当个小职员吗？</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>职位大小不是那么重要，但……这么早就确定平平凡凡过一辈子？</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>"The position or title isn't that important, but... settling for an ordinary life so soon?"</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>1girl, contemplative expression, (ordinary life theme:1.3), young adult, (long flowing hair:1.2), casual modern outfit, sitting pose, looking into distance, urban park background, afternoon light, (depth effect:1.1)</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>职位大小不是那么重要，但……这么早就确定平平凡凡过一辈子？</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>把曾经有过的创业梦想与野心都放弃，向现实屈服，自己真的甘心吗？</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>"Are you truly content with giving up your entrepreneurial dreams and ambitions and yielding to reality?"</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>1girl, introspective mood, entrepreneurial theme, young adult, (determined expression:1.3), business casual attire, sitting at desk, front view, (leaning forward:1.1), dimly lit home office background  
+1girl, conflicted emotions, ambition vs reality, mid 20s, (tousled hair:1.2), wrinkled blouse, head in hands, low angle view, (sighing:1.1), cluttered workspace background  
+1boy, pensive demeanor, career crossroads, late 20s, (messy dark hair:1.2), untied necktie, slumped shoulders, side profile, (staring into distance:1.1), city skyline window background  
+1girl, motivational moment, rediscovering passion, early 30s, (fiery eyes:1.3), rolled up sleeves, standing pose, dynamic angle, (fist clenching:1.2), sunrise through window background  
+2people, heated discussion, business partners, mixed gender, (intense body language:1.2), formal wear, facing each other, wide shot, (pointing at documents:1.1), glass wall conference room background</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>把曾经有过的创业梦想与野心都放弃，向现实屈服，自己真的甘心吗？</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>段强泄忿似的把球砸向篮板，然后说：“不打了！</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Duan Qiang hurled the ball at the backboard in frustration and said, "I'm done playing!"</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>1boy, basketball court setting, angry emotion, teenage boy, (frustrated expression:1.5), sports jersey, throwing ball, backboard, (dynamic pose:1.2), side view, indoor gym background</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>段强泄忿似的把球砸向篮板，然后说：“不打了！</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>休息一会儿。</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>"Take a break."</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>1girl, relaxing mood, (soft smile:1.3), long brown hair, cozy sweater, sitting pose, (reading a book:1.2), close up view, warm sunlight, cafe background</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>休息一会儿。</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>段强把一瓶水递给他，忽然说：“还记得吗？</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Duan Qiang handed him a bottle of water and suddenly asked, "Remember that time?"</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>1boy, 1girl, casual conversation, surprised expression, short black hair, white t-shirt, sitting pose, front view, handing a water bottle, park background  
+1girl, 1boy, nostalgic mood, soft smile, shoulder-length brown hair, blue jeans, leaning forward, side view, holding a bottle, sunset background  
+1boy, 1girl, thoughtful gaze, messy hair, hoodie, cross-legged pose, close-up view, talking, indoor cafe setting  
+1girl, 1boy, curious look, ponytail, striped shirt, standing pose, over-the-shoulder view, asking a question, schoolyard background  
+1boy, 1girl, warm lighting, gentle eyes, glasses, relaxed posture, low angle view, sharing memories, home interior background</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>段强把一瓶水递给他，忽然说：“还记得吗？</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>你小时候说，以后要当得分王。</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>"When you were little, you said you wanted to be the scoring champion someday."</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>1girl, childhood memory, nostalgic emotion, (bright eyes:1.3), (smiling softly:1.2), casual dress, sitting pose, front view, holding basketball, park background</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>你小时候说，以后要当得分王。</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>还骗我说，到时候封我当篮板王，把我也骗来跟你一起打球。</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>"You even lied to me, saying you'd make me the rebound king someday, tricking me into playing ball with you."</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>1boy, betrayed expression, basketball theme, young athlete, (angry eyes:1.4), sports jersey, holding basketball, mid shot, urban court background, evening lighting  
+1girl, disappointed look, long ponytail, casual sportswear, arms crossed, front view, standing near bench, outdoor park setting, cloudy sky  
+2boys, tense atmosphere, confrontation scene, (frustrated face:1.3), basketball uniforms, pointing finger, low angle shot, dim gymnasium, dramatic shadows  
+1boy, tearful eyes, messy hair, (worn out sneakers:1.1), sitting on court, head in hands, close up, empty playground, sunset glow  
+1girl, determined stance, short hair, track suit, dribbling ball, dynamic pose, side profile, indoor stadium, bright lights</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>还骗我说，到时候封我当篮板王，把我也骗来跟你一起打球。</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>程宗扬笑了起来。</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Cheng Zongyang laughed.</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>1boy, cheerful expression, young adult, short black hair, casual outfit, standing pose, front view, laughing action, indoor background</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>程宗扬笑了起来。</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>小时候他最喜欢打篮球，连哄带骗地把段强拉来一起打。</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>When he was young, he loved playing basketball and would always coax or trick Duan Qiang into joining him for a game.</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>1boy, basketball theme, youthful energy, happy expression, sporty clothing, dribbling pose, dynamic action, low angle view, outdoor court background  
+1boy, childhood memory, playful mood, short hair, jersey and shorts, shooting pose, mid range view, sunny day background  
+1boy and 1boy, friendship theme, competitive spirit, smiling faces, basketball attire, passing motion, side view, schoolyard setting  
+1boy, nostalgic scene, determined look, sweat on forehead, sleeveless shirt, running pose, close up view, dusk lighting  
+1boy, sports activity, enthusiastic emotion, athletic build, sneakers and wristband, jumping pose, action shot, gymnasium background</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>小时候他最喜欢打篮球，连哄带骗地把段强拉来一起打。</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>但他的身高长到一米七八就没有再长，这个梦想也就破灭了。</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>"But his height stopped at 1.78 meters, shattering that dream."</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>1boy, shattered dream, disappointed expression, young adult, (height 1.78 meters:1.5), casual wear, standing pose, front view, looking down, empty gym background</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>但他的身高长到一米七八就没有再长，这个梦想也就破灭了。</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>那时候他还想过长大了要当科学家，因为老师说，最值得钦佩的是科学家。</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>"Back then, he even dreamed of becoming a scientist when he grew up, because his teacher said scientists were the most admirable."</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>1boy, childhood dream, aspiring scientist, admiration, young age, school uniform, sitting at desk, thoughtful expression, classroom background, teacher speaking, science posters on wall  
+1boy, nostalgic memory, inspired look, short hair, casual clothes, holding science book, looking up, classroom setting, daylight through windows, chalkboard in background  
+1boy, determined expression, future scientist, glasses, neat clothing, writing notes, close up view, laboratory equipment in background, motivational atmosphere  
+1boy, dreaming pose, eyes sparkling, schoolboy outfit, lying on grass, looking at clouds, sunny day, nature background, imaginative mood  
+1boy, teacher pointing, excited student, backpack, raising hand, front view, colorful classroom, educational theme, science tools on table</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>那时候他还想过长大了要当科学家，因为老师说，最值得钦佩的是科学家。</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>后来他想当太空人，因为在太空漫步的感觉实在太吸引人了。</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>"Later, he dreamed of becoming an astronaut because the idea of floating in space was utterly captivating."</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>1boy, astronaut dream, floating in space, awe inspired, young adult, (space suit:1.4), (zero gravity pose:1.3), front view, (stars background:1.2), cosmic wonder</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>后来他想当太空人，因为在太空漫步的感觉实在太吸引人了。</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>再往后他还想过要当历史学家、文学家、画家……就像任何一个普通的孩子那样，有过无数的梦想与憧憬。</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Later on, he also dreamed of becoming a historian, a writer, a painter... just like any ordinary child, he had countless dreams and aspirations.</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>1boy, childhood dreams, aspiring historian, writer, painter, curious expression, (innocent eyes:1.3), casual kids clothing, sitting pose, drawing on paper, front view, cozy room background, (creative atmosphere:1.2)</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>再往后他还想过要当历史学家、文学家、画家……就像任何一个普通的孩子那样，有过无数的梦想与憧憬。</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>不过段强的梦想就很纯粹了。</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>"However, Duan Qiang's dream was much simpler."</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>1boy, simple dream, young adult, (content expression:1.4), short black hair, plain white shirt, sitting pose, front view, looking at horizon, rural landscape background</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>不过段强的梦想就很纯粹了。</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>他从小的梦想就是要穿越，看看另外一个世界是什么样子的。</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>"Ever since he was a child, his dream has been to travel through time and see what another world might look like."</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>1boy, time travel dream, curious expression, young adult, (wavy brown hair:1.3), (adventurer outfit:1.2), gazing into distance, (futuristic portal:1.4), sci fi theme, dynamic pose, low angle view, cosmic background</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>他从小的梦想就是要穿越，看看另外一个世界是什么样子的。</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>为此他甚至参加过一期野外生存的训练营，但只待了三天就回来了。</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>For this, he even joined a wilderness survival training camp, but came back after only three days.</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>1boy, wilderness survival training, disappointed expression, young adult, (hiking boots:1.3), (muddy clothes:1.2), sitting on log, front view, exhausted posture, forest background, camp tent in distance</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>为此他甚至参加过一期野外生存的训练营，但只待了三天就回来了。</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>他说：“野外生存太无聊了。</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>He said, "Surviving in the wild is so dull."</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>1boy, wilderness setting, bored expression, (survival theme:1.3), young adult, short brown hair, (casual outdoor clothing:1.2), sitting on a log, side view, holding a stick, dense forest background</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>他说：“野外生存太无聊了。</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>如果我穿越了，只要带一挺机枪就能攻克一座城市！</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>"If I traveled back in time, a single machine gun would be enough to conquer a city!"</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>1girl, time traveler, determined expression, futuristic armor, holding machine gun, dynamic pose, low angle view, action stance, war torn city background, (futuristic armor:1.3), (machine gun:1.2), (determined expression:1.1)  
+1boy, soldier, intense gaze, military uniform, crouching pose, front view, aiming rifle, battlefield background, (military uniform:1.2), (intense gaze:1.1)  
+1girl, steampunk inventor, curious look, goggles on head, leather jacket, tinkering pose, side view, workshop background, (goggles:1.3), (leather jacket:1.1)  
+1boy, medieval knight, stern face, plate armor, sword raised, heroic pose, high angle view, castle ruins background, (plate armor:1.4), (sword raised:1.2)  
+1girl, cyberpunk rebel, smirk, neon jacket, leaning pose, street view, futuristic city background, (neon jacket:1.3), (smirk:1.1)</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>如果我穿越了，只要带一挺机枪就能攻克一座城市！</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>程宗扬笑了起来，“又不是小孩子了，你还在想穿越？</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Cheng Zongyang laughed. "We're not kids anymore, and you're still dreaming about time travel?"</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>1boy, amused expression, young adult, casual conversation, modern clothing, sitting pose, 1girl, 20 years old, (smiling:1.3), (long black hair:1.2), indoor setting, relaxed atmosphere, side view</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>程宗扬笑了起来，“又不是小孩子了，你还在想穿越？</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>“那当然！</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>"Of course!"</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>1girl, happy expression, (long blonde hair:1.5), (blue eyes:1.2), summer dress, standing pose, sunny park background, holding flowers, front view, cheerful mood</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>“那当然！</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>这个世界生活太没意思了。</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>"Life in this world is so dull."</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>1girl, melancholic expression, dull world theme, shoulder length brown hair, loose sweater, sitting on a bench, front view, gazing into distance, urban park background  
+1girl, sad eyes, mundane life theme, black hair in a ponytail, oversized hoodie, slouched posture, side view, holding a book, rainy window background  
+1boy, bored expression, monotony theme, short messy hair, wrinkled t-shirt, leaning against a wall, low angle view, sighing, empty street background  
+1girl, tired face, repetitive routine theme, wavy blonde hair, plain dress, hugging knees, top down view, staring at floor, dimly lit room background  
+1boy, apathetic mood, gray city theme, spiky dark hair, worn out jacket, hands in pockets, back view, walking slowly, crowded subway background</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>这个世界生活太没意思了。</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>段强眼睛突然一亮，“宗扬！</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Duan Qiang's eyes suddenly lit up, "Zong Yang!"</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>1boy, surprised expression, bright eyes, calling out, 1girl, medium length hair, casual outfit, standing pose, front view, urban background, daytime lighting</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>段强眼睛突然一亮，“宗扬！</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>我跟你一起去上海！</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>"I'll go to Shanghai with you!"</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>1girl, excited expression, traveling together, young adult, shoulder length black hair, casual outfit, walking pose, front view, Shanghai cityscape background, (happy smile:1.3), (modern clothing:1.1)  
+1boy, friendly demeanor, companion, short brown hair, relaxed attire, standing pose, side view, urban street background, (warm expression:1.2), (backpack:1.1)  
+1girl 1boy, joyful interaction, vacation theme, Asian features, stylish travel clothes, holding hands pose, medium shot, Bund waterfront background, (laughing together:1.4), (sunset lighting:1.2)  
+1girl, determined look, adventure theme, wavy blonde hair, sporty jacket, pointing forward pose, low angle view, airport terminal background, (energetic pose:1.3), (sneakers:1.1)  
+1boy, cheerful mood, travel partner, glasses, hoodie and jeans, carrying luggage pose, over the shoulder view, train station background, (excited gesture:1.2), (city map:1.1)</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>我跟你一起去上海！</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>“你去哪儿干什么？</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>"Where are you going there for?"</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>1girl, curious expression, young adult, medium brown hair, casual outfit, walking pose, front view, urban street background, holding a map, daytime setting</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>“你去哪儿干什么？</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>“那里是北纬三十度线！</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>"That's the 30th parallel north!"</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>1girl, excited expression, pointing at horizon, (long brown hair:1.3), casual summer dress, standing pose, (sunset background:1.2), 30th parallel north sign, adventure theme, side view, warm lighting</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>“那里是北纬三十度线！</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>段强兴奋地说：“说不定我会在扬子江上穿越呢。</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Duan Qiang exclaimed excitedly, "Who knows, I might just make a crossing over the Yangtze River!"</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>1boy, excited expression, young man, (crossing Yangtze River:1.5), (determined look:1.2), casual outfit, standing pose, front view, river background, daytime</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>段强兴奋地说：“说不定我会在扬子江上穿越呢。</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>看着好友殷切的眼神，程宗扬哑然失笑，“好吧，我们一起去。</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Meeting his friend’s eager gaze, Cheng Zongyang chuckled helplessly. “Alright, let’s go together.”</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>1boy, friendly interaction, helpless chuckle, eager gaze, casual clothing, standing pose, side view, urban background, (Cheng Zongyang:1.5), (friend:1.2), (together:1.1)</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>看着好友殷切的眼神，程宗扬哑然失笑，“好吧，我们一起去。</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>到时候我们一起穿越！</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>"Let's travel through time together when the time comes!"</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>1girl, time travel theme, excited expression, long flowing hair, futuristic outfit, reaching forward pose, dynamic angle, stepping into portal, swirling cosmic background (futuristic outfit:1.3) (swirling cosmic background:1.2)</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>到时候我们一起穿越！</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>段强拿起篮球，大声说：“看我的穿越之球！</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Duan Qiang picked up the basketball and shouted, "Watch my crossover shot!"</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>1boy, basketball theme, energetic expression, short black hair, sporty outfit, dribbling pose, dynamic action, mid range view, outdoor court background  
+1boy, athletic build, confident shout, sweatband on wrist, jumping motion, close up shot, gymnasium setting  
+young male, basketball in hand, shouting dialogue, focused eyes, tank top and shorts, crossover move, low angle perspective, wooden floor arena  
+teenage boy, competitive mood, messy hair, sneakers and jersey, mid dribble stance, side profile, sunset park scene  
+1boy, sports moment, determined face, baggy sports pants, holding ball overhead, three quarter view, indoor stadium lights</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>段强拿起篮球，大声说：“看我的穿越之球！</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>“噗”的一声，篮球穿网而过。</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>With a soft "swish," the basketball sailed through the net.</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>1boy, basketball theme, young athlete, focused expression, (sweat on forehead:1.3), sports jersey, shooting pose, (ball in hand:1.2), mid range view, gymnasium background  
+1girl, basketball theme, teenage player, determined look, (ponytail hair:1.1), athletic shorts, jumping pose, (net swish effect:1.4), close up view, outdoor court background  
+1boy, sports action, dynamic movement, intense gaze, (muscular build:1.3), basketball uniform, dunking pose, (rim grip:1.2), low angle view, stadium lights background  
+1girl, casual sports, cheerful smile, (freckles:1.1), tank top, dribbling pose, (ball bounce effect:1.3), side view, park setting  
+1boy, basketball game, competitive spirit, (headband:1.2), sleeveless jersey, defensive stance, (stealing ball:1.4), over the shoulder view, crowded bleachers background</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>“噗”的一声，篮球穿网而过。</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>段强举起手，做了个胜利的手势，“穿越成功！</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Duan Qiang raised his hand and flashed a victory sign, "We made it through!"</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>1boy, victory pose, excited expression, young adult, short black hair, casual outfit, raised hand, V sign, outdoor setting, sunny day, (dynamic angle:1.2), (detailed background:1.1)</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>段强举起手，做了个胜利的手势，“穿越成功！</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>离开篮球馆，程宗扬才注意到外面停着一辆崭新的保时捷卡雷拉。</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>After leaving the basketball gym, Cheng Zongyang noticed a brand-new Porsche Carrera parked outside.</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>1boy, basketball gym exit, noticing car, brand new Porsche Carrera, casual sportswear, surprised expression, (modern city background:1.2), side view, walking pose, evening lighting</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>离开篮球馆，程宗扬才注意到外面停着一辆崭新的保时捷卡雷拉。</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>那是段强新买的跑车，黄色的流线型车身宁静中充满无穷动力，程宗扬不晓得要工作多少年，不吃不喝，才买得起这样的跑车，但对段强而言，这不过是今年换的新车。</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>"That was Duan Qiang's newly bought sports car—a sleek, yellow body exuding quiet yet boundless power. Cheng Zongyang couldn’t fathom how many years of work, scrimping and saving, it would take to afford such a car. But for Duan Qiang, this was just another new ride for the year."</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>1boy, wealthy young man, confident expression, sleek yellow sports car, modern city street, admiring gaze, casual stylish outfit, leaning on car, front view, sunny day background  
+1boy, envy emotion, middle class man, plain clothing, standing pose, looking at sports car, urban setting, daytime, side view  
+yellow sports car, luxurious vehicle, shiny exterior, parked on street, cityscape background, sunlight reflection, front angle  
+two men contrast, wealth disparity theme, one confident one envious, modern urban environment, daytime lighting, medium shot</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>那是段强新买的跑车，黄色的流线型车身宁静中充满无穷动力，程宗扬不晓得要工作多少年，不吃不喝，才买得起这样的跑车，但对段强而言，这不过是今年换的新车。</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>程宗扬坐到车上，叹了口气说：“开着这样的车，还整天想穿越。</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Cheng Zongyang got into the car, sighed, and said, "Driving a car like this and still dreaming about time travel every day."</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>1boy, frustrated expression, driving a car, modern clothing, sitting pose, front view, city street background, sighing, time travel dream comment</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>程宗扬坐到车上，叹了口气说：“开着这样的车，还整天想穿越。</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>“哈哈，理想的生活总是在别处！</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>"Ha, the ideal life is always somewhere else!"</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>1girl, wistful expression, (long flowing hair:1.3), dreamy gaze, (soft pastel dress:1.2), leaning on balcony, distant cityscape, golden hour lighting, contemplative mood, (sunset hues:1.1), slight breeze</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>“哈哈，理想的生活总是在别处！</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>段强说：“我恨不得穿越回去当个孤儿，也不用整天闲得无聊。</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Duan Qiang said, "I wish I could go back in time and be an orphan—at least I wouldn’t be bored out of my mind all the time."</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>1boy, melancholic expression, teenage boy, short black hair, school uniform, sitting alone, front view, looking down, empty classroom background, (sad eyes:1.3), (lonely atmosphere:1.2)</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>段强说：“我恨不得穿越回去当个孤儿，也不用整天闲得无聊。</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>走了！</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>"Let's go!"</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>1girl, excited emotion, (short brown hair:1.5), casual outfit, (running pose:1.2), front view, park background, holding hands, sunny day</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>走了！</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>“喂，你的机票还没订呢。</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>"Hey, you haven't booked your flight ticket yet."</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>1girl, surprised expression, casual conversation, young adult, (short brown hair:1.3), (jeans and t-shirt:1.2), sitting pose, front view, holding phone, airport background</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>“喂，你的机票还没订呢。</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>“开玩笑，我的机票还用自己去订！</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>"Are you kidding? I don’t even book my own flights!"</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>1girl, surprised expression, (raised eyebrows:1.3), (open mouth:1.2), casual outfit, standing pose, hands on hips, indoor setting, modern background, looking at phone</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>“开玩笑，我的机票还用自己去订！</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>三个小时之后，程宗扬与段强已经乘上飞往上海的航班。</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Three hours later, Cheng Zongyang and Duan Qiang were already on a flight bound for Shanghai.</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>1boy, 1boy, business trip, serious expression, short black hair, formal suit, sitting pose, airplane cabin, window view, (cloudy sky:1.2), (fastened seatbelt:1.1)  
+1boy, 1boy, travel theme, calm demeanor, neat hairstyle, casual travel clothes, relaxed posture, airplane interior, (city lights below:1.3), (tray table down:1.1)  
+1boy, 1boy, professional attire, focused gaze, leather shoes, upright sitting, (flight attendant passing by:1.2), (overhead compartment:1.1), dim cabin lighting</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>三个小时之后，程宗扬与段强已经乘上飞往上海的航班。</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>除了行李，段强还带了一个巨大的旅行袋，里面放着帐篷、睡袋、防虫剂、药品、太阳能充电器、随身工具，甚至还有书籍和潜水衣。</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>In addition to his luggage, Duan Qiang also carried a large travel bag filled with a tent, sleeping bag, insect repellent, medicine, a solar charger, portable tools, and even books and a wetsuit.</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>1boy, adventure theme, determined expression, rugged appearance, backpacker clothing, carrying heavy bags, front view, walking pose, outdoor background, (large travel bag:1.3), (tent and gear:1.2), forest setting</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>除了行李，段强还带了一个巨大的旅行袋，里面放着帐篷、睡袋、防虫剂、药品、太阳能充电器、随身工具，甚至还有书籍和潜水衣。</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>程宗扬觉得很可笑，“怎么带这么多东西？</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Cheng Zongyang found it rather amusing. "Why bring so much stuff?"</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>1boy, amused expression, Cheng Zongyang, young man, casual outfit, leaning pose, holding luggage, front view, crowded train station background</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>程宗扬觉得很可笑，“怎么带这么多东西？</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>“这你就不知道了，这都是穿越时的必备物品。</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>"You wouldn't know this, but these are all essential items for time travel."</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>1girl, time travel theme, mysterious expression, (long wavy hair:1.5), (steampunk outfit:1.3), holding strange devices, (dynamic pose:1.1), close up view, futuristic laboratory background</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>“这你就不知道了，这都是穿越时的必备物品。</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>帐篷、睡袋用来野营，防虫剂、药品是防护的，充电器用来给照明设备蓄能。</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>"Tents and sleeping bags are for camping, insect repellent and medicine are for protection, and chargers are used to power lighting equipment."</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>1girl, outdoor camping, happy expression, (long brown hair:1.5), (practical clothing:1.2), holding a flashlight, (standing pose:1.1), front view, forest background, night time  
+1boy, camping trip, curious look, short black hair, (jacket and jeans:1.3), sitting by tent, side view, mountain landscape, sunset  
+1girl 1boy, wilderness adventure, excited mood, (backpacks and gear:1.4), (hiking boots:1.2), setting up tent, low angle view, lakeside background, daytime  
+1girl, nature exploration, calm demeanor, (ponytail hair:1.3), (windbreaker:1.1), applying insect repellent, over the shoulder view, grassy field, dusk  
+1boy, survivalist theme, focused face, (messy blonde hair:1.2), (cargo pants:1.1), checking medicine kit, close up view, rocky terrain, midday sun</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>帐篷、睡袋用来野营，防虫剂、药品是防护的，充电器用来给照明设备蓄能。</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>还有这些书，都是讲各种产品的基础制作方法。</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>"Also, these books cover the basic production methods for various products."</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>1girl, educational theme, (knowledgeable expression:1.4), brown hair, glasses, (professional attire:1.3), sitting at desk, reading book, close up view, library background, bookshelves  
+1boy, industrial setting, (focused look:1.3), short black hair, (work uniform:1.2), holding tools, side view, factory background, machinery  
+1girl 1boy, science theme, (curious faces:1.4), lab coats, (experimenting:1.3), mixing chemicals, front view, laboratory background, beakers  
+1girl, artistic theme, (creative pose:1.3), colorful dress, painting canvas, side view, studio background, brushes  
+1boy, outdoor setting, (adventurous expression:1.4), backpack, hiking boots, walking trail, mountain background, nature</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>还有这些书，都是讲各种产品的基础制作方法。</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>段强随手翻开一页，“水泥：将石灰和粘土按三比一的比例混合，加水至百分之四十，入窑烧干，磨碎即可。</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Duan Qiang casually flipped to a page: "Cement: Mix lime and clay in a three-to-one ratio, add water up to forty percent, then fire in a kiln until dry, and grind into powder."</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>1boy, industrial setting, focused expression, young adult, (short black hair:1.3), (workshop clothing:1.2), holding a book, reading intently, medium close up, cement kiln background, (technical details:1.1)</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>段强随手翻开一页，“水泥：将石灰和粘土按三比一的比例混合，加水至百分之四十，入窑烧干，磨碎即可。</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>简单吧。</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Easy, right?</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>1girl, cheerful expression, (long blonde hair:1.5), (sunny park background:1.2), casual dress, smiling, standing pose, front view, holding a book, bright daylight</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>简单吧。</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>白痴都能学会。</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>"It's so easy, even an idiot could learn it."</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>1girl, sarcastic expression, (smirk:1.3), young adult, short blonde hair, casual outfit, leaning forward, pointing at whiteboard, classroom background, (text on whiteboard:1.2), "It's so easy even an idiot could learn it"</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>白痴都能学会。</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>段强拍了拍旅行袋，“有它在手，穿越到哪儿我都不怕！</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Duan Qiang patted the travel bag and said, "With this by my side, I’m ready to take on any journey!"</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>1boy, adventure theme, confident expression, young adult, (travel bag:1.5), casual outfit, standing pose, front view, patting bag, outdoor background</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>段强拍了拍旅行袋，“有它在手，穿越到哪儿我都不怕！</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>“为什么你还带潜水衣呢？</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>"Why did you bring a wetsuit?"</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>1girl, surprised expression, wetsuit, beach setting, holding surfboard, confused look, ocean background, sunny day, side view, wet hair, barefoot</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>“为什么你还带潜水衣呢？</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>段强说：“万一穿越到水里呢？</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Duan Qiang said, "What if we end up in the water?"</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>1boy, worried expression, young adult, (short black hair:1.3), casual outfit, standing near water, (looking down:1.2), side view, river background, dusk lighting</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>段强说：“万一穿越到水里呢？</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>程宗扬笑着说：“你可真是个穿越迷。</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Cheng Zongyang said with a smile, "You really are a time-travel fanatic."</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>1boy, smiling expression, time travel fanatic, casual conversation, modern clothing, sitting pose, front view, indoor background, relaxed atmosphere</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>程宗扬笑着说：“你可真是个穿越迷。</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>段强一边把旅行袋塞进头顶的行李箱，一边说：“难道你就不想穿越吗？</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>As he stuffed the travel bag into the overhead compartment, Duan Qiang said, "Don’t you ever wish you could time travel?"</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>1boy, time travel theme, casual clothing, thoughtful expression, (stuffing travel bag:1.3), overhead compartment, airplane interior, side view, (medium brown hair:1.1), young adult</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>段强一边把旅行袋塞进头顶的行李箱，一边说：“难道你就不想穿越吗？</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>程宗扬想了一会儿，“不。</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Cheng Zongyang thought for a moment, then said, "No."</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>1boy, thoughtful expression, young adult, short black hair, plain white shirt, sitting pose, side view, indoor background, dim lighting, simple furniture</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>程宗扬想了一会儿，“不。</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>我不想穿越。</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>"I don't want to time travel."</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>1girl, reluctant expression, time travel theme, medium brown hair, casual modern outfit, sitting pose, front view, looking away, futuristic city background  
+1boy, determined look, sci fi setting, short black hair, leather jacket, standing pose, side view, crossing arms, vintage clock shop background  
+1girl 1boy, heated argument, fantasy adventure, elven ears, medieval robes, dynamic poses, over the shoulder view, gesturing angrily, magical portal background  
+1girl, anxious emotion, steampunk aesthetic, wavy blonde hair, Victorian dress, hugging knees pose, low angle view, dimly lit laboratory background  
+1boy, bored demeanor, school theme, messy brown hair, uniform with tie, slouching pose, classroom desk, blackboard equations background  
+1girl, futuristic cyberpunk, neon pink highlights, holographic bodysuit, running pose, back view, raining cityscape background  
+1boy, nostalgic feeling, historical setting, braided silver hair, antique pocket watch, leaning pose, library with old books background  
+1girl, defiant stance, post apocalyptic world, scarred face, torn military jacket, holding weapon pose, ruined city background  
+1boy, curious expression, space station setting, goggles on forehead, jumpsuit with tools, crouching pose, alien artifact background  
+1girl, peaceful smile, nature theme, flower crown, sundress, lying in grass pose, sunlight through trees background</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>我不想穿越。</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>如果穿越了，谁来偿还房屋贷款呢？</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>"If I time-traveled, who would pay the mortgage?"</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>1girl, time travel theme, confused expression, modern casual outfit, sitting pose, holding calendar, (messy room background:1.3), mid shot, looking at bills, (frustrated emotion:1.2)  
+1boy, sci fi setting, surprised face, futuristic clothing, standing pose, (holding time machine device:1.4), laboratory background, wide angle view, (excited emotion:1.1)  
+1girl 1boy, financial stress theme, worried expressions, office attire, sitting at table, discussing documents, (cluttered desk background:1.3), front view, (tense atmosphere:1.2)  
+1girl, fantasy adventure, determined look, traveler cloak, walking pose, (holding ancient map:1.5), forest path background, side view, (focused emotion:1.1)  
+1boy, historical setting, curious expression, vintage suit, leaning pose, (observing pocket watch:1.4), old library background, low angle view, (thoughtful mood:1.2)</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>如果穿越了，谁来偿还房屋贷款呢？</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>段强坐下来，唉声叹气地说：“难道你连一点梦想都没有，一辈子做个小职员就满足了吗？</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Duan Qiang sat down and sighed, "Don’t you have even a bit of ambition? Are you really content with being just a lowly clerk your whole life?"</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>1boy, disappointed expression, sitting pose, low ambition, office setting, casual clothing, sighing, side view, dim lighting, desk clutter</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>段强坐下来，唉声叹气地说：“难道你连一点梦想都没有，一辈子做个小职员就满足了吗？</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>满足吗？</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>"Are you satisfied?"</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>1girl, questioning expression, (long black hair:1.5), (school uniform:1.2), standing pose, front view, classroom background, holding a paper, slight frown  
+1boy, curious gaze, short brown hair, casual t-shirt, sitting pose, side view, park background, leaning forward, sunlight  
+1girl, happy smile, (blonde ponytail:1.4), (sports outfit:1.1), running pose, low angle view, track field background, waving hand  
+1boy, serious face, glasses, (business suit:1.3), standing pose, front view, office background, holding a document  
+1girl, shy demeanor, (wavy pink hair:1.5), (floral dress:1.2), sitting pose, side view, garden background, playing with flower</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>满足吗？</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>那种一成不变，平凡到乏味的生活……程宗扬下意识地握紧拳头，然后岔开话题，“带这么多东西，你不嫌累啊。</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>"That monotonous, dull life, so mundane it's almost tedious..." Cheng Zongyang instinctively clenched his fist, then changed the subject. "Isn’t carrying all this stuff exhausting for you?"</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>1boy, frustrated emotion, clenched fist, changing subject, 1girl, carrying heavy items, tired expression, casual wear, standing pose, front view, urban street background  
+1boy, annoyed mood, looking away, 1girl, weary face, holding bags, simple outfit, mid shot, daytime setting  
+1boy, tense posture, avoiding eye contact, 1girl, struggling with load, plain clothes, side angle, crowded background  
+1boy, impatient gesture, turning head, 1girl, fatigued stance, burdened by packages, everyday attire, over the shoulder view, cityscape  
+1boy, irritated demeanor, fist tightening, 1girl, exhausted look, hauling items, relaxed clothing, three quarter view, sidewalk scene  
+1boy, suppressing anger, shifting focus, 1girl, worn out, managing luggage, modest dress, low angle shot, busy street  
+1boy, restless motion, diverting conversation, 1girl, laboring under weight, comfortable outfit, high angle perspective, urban environment</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>那种一成不变，平凡到乏味的生活……程宗扬下意识地握紧拳头，然后岔开话题，“带这么多东西，你不嫌累啊。</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>来，玩个机智问答，如果给你一个穿越的机会，只限你带三样东西，你会带什么？</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>"Come on, let's play a quick-witted Q&amp;A: If you had a chance to time travel but could only bring three things, what would you take?"</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>1girl, quick witted Q&amp;A, time travel theme, curious expression, (long wavy hair:1.3), (sci fi outfit:1.2), leaning forward pose, front view, holding futuristic device, cosmic background  
+1boy, playful mood, adventure theme, messy brown hair, (jacket with pockets:1.1), sitting pose, side view, thinking gesture, vintage clock background  
+1girl 1boy, excited interaction, time machine setting, (sparkling eyes:1.4), (retro futuristic clothing:1.3), pointing at each other, dynamic angle, laughing together, steampunk cityscape  
+1girl, thoughtful expression, fantasy time travel, (braided silver hair:1.5), (elegant robe:1.2), cross legged pose, close up view, holding ancient book, magical library background  
+1boy, determined look, historical adventure, short spiky hair, (explorer vest:1.1), running pose, low angle view, carrying backpack, ancient ruins background</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>来，玩个机智问答，如果给你一个穿越的机会，只限你带三样东西，你会带什么？</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>段强精神一振，“简单的我就带三样东西：一本《军工制造》从炼钢到弹药我全都要造；一份历史年表，有了它，我就是半个神仙；再加一挺重机枪──有这三件宝贝在身，我是神挡杀神，佛挡灭佛！</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Duan Qiang perked up with excitement. "For the basics, I’d take just three things: a copy of *Military Industry Manufacturing*—with it, I can produce everything from steel to ammunition; a historical timeline—that’d make me practically omniscient; and a heavy machine gun—armed with these three treasures, I’d be unstoppable, crushing anyone or anything in my way!"</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>1boy, excited expression, young adult, (holding heavy machine gun:1.5), military theme, (determined look:1.2), tactical clothing, standing pose, front view, industrial background, holding book titled Military Industry Manufacturing, timeline document in hand, confident stance, futuristic setting</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>段强精神一振，“简单的我就带三样东西：一本《军工制造》从炼钢到弹药我全都要造；一份历史年表，有了它，我就是半个神仙；再加一挺重机枪──有这三件宝贝在身，我是神挡杀神，佛挡灭佛！</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>程宗扬笑了起来，“你以为带一本《军工制造》就能造出钢铁、弹药？</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Cheng Zongyang laughed, "Did you really think bringing a copy of 'Military Manufacturing' would allow you to produce steel and ammunition?"</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>1boy, military theme, sarcastic laugh, young adult, short black hair, (mocking expression:1.5), military uniform, leaning forward, (holding book:1.2), medium shot, industrial background</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>程宗扬笑了起来，“你以为带一本《军工制造》就能造出钢铁、弹药？</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>没有工业基础，你连一颗子弹都造不出来。</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Without an industrial base, you can't even produce a single bullet.</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>1girl, serious expression, industrial theme, young adult, short black hair, (worker uniform:1.3), standing pose, holding a bullet, (factory background:1.2), side view, dim lighting</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>没有工业基础，你连一颗子弹都造不出来。</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>机枪更没用，子弹打完还不如烧火棍呢。</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>"Machine guns are even more useless—once you’re out of ammo, they’re worse than a stick."</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>1girl, military theme, frustrated expression, young adult, (camouflage uniform:1.3), (holding empty machine gun:1.4), standing pose, front view, battlefield background, smoke and debris</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>机枪更没用，子弹打完还不如烧火棍呢。</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>再说历史年表──你如果穿越能改变历史，历史年表还有个屁用。</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>"Speaking of historical timelines—what’s the damn point of them if time travel could just rewrite history?"</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>1girl, historical timeline, time travel concept, confused expression, (long wavy hair:1.3), vintage dress, sitting pose, holding old book, (dim library background:1.2), side view, deep in thought</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>再说历史年表──你如果穿越能改变历史，历史年表还有个屁用。</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>如果不能改变历史，你还穿越干嘛？</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>"If you can't change history, what's the point of time traveling?"</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>1girl, time traveler, frustrated expression, (long wavy hair:1.3), futuristic jumpsuit, (holding broken hourglass:1.2), close up, dimly lit laboratory, steampunk gadgets, (tense posture:1.1)</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>如果不能改变历史，你还穿越干嘛？</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>再说，万一穿越到与我们历史无关的异世界，你带历史课本去那边教神话吗？</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>"Besides, what if you end up in a parallel world unrelated to our history? Are you going to bring history textbooks there to teach mythology?"</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>1girl, fantasy setting, curious expression, long brown hair, (historical clothing:1.3), holding textbooks, (confused pose:1.2), front view, parallel world background, magical atmosphere  
+1boy, science fiction theme, surprised emotion, short black hair, futuristic outfit, pointing forward, (dynamic pose:1.4), low angle view, alternate universe backdrop, glowing portal  
+1girl, adventure concept, determined look, wavy blonde hair, traveler attire, carrying backpack, walking pose, over the shoulder perspective, ancient ruins environment, mysterious fog  
+1boy, steampunk style, skeptical face, goggles on head, leather coat, arms crossed, (serious stance:1.3), medium shot, clockwork city scenery, flying airships  
+1girl, magical girl genre, excited mood, twin tails, frilly dress, waving hand, (sparkle effect:1.5), close up view, dreamy landscape, floating islands  
+1boy, post apocalyptic world, tired eyes, messy hair, rugged jacket, leaning on wall, (weathered look:1.2), side profile, destroyed city background, dim lighting  
+1girl, cyberpunk theme, confident smile, neon highlights, high tech bodysuit, standing tall, (futuristic glow:1.4), wide angle shot, neon cityscape, rain effects  
+1boy, medieval era, thoughtful gaze, chainmail armor, sword at side, sitting pose, (detailed armor:1.3), three quarter view, castle courtyard setting, sunset sky</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>再说，万一穿越到与我们历史无关的异世界，你带历史课本去那边教神话吗？</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>段强抓了抓脑袋，“那你穿越到过去要带什么？</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Duan Qiang scratched his head, "Then what would you bring if you traveled back in time?"</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>1boy, confused expression, scratching head, casual clothing, standing pose, front view, simple background, time travel theme, thoughtful mood, medium hair</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>段强抓了抓脑袋，“那你穿越到过去要带什么？</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>只限三件。</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>"Limit of three items."</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>1girl, serious expression, (short brown hair:1.3), school uniform, classroom setting, holding three books, (front view:1.1), slight frown, rule enforcement, wooden desk background  
+1boy, frustrated mood, (messy black hair:1.2), hoodie and jeans, convenience store, reaching for fourth item, (side angle:1.1), cashier counter, fluorescent lighting  
+1girl, cheerful demeanor, (blonde ponytail:1.4), sportswear, supermarket aisle, counting items in cart, (overhead view:1.1), shopping basket, colorful product shelves</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>只限三件。</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>程宗扬想了想，“第一件，我要带一套大百科全书。</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Cheng Zongyang thought for a moment and said, "First, I want to bring a complete set of encyclopedias."</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>1boy, thoughtful expression, holding encyclopedia, (serious mood:1.3), young adult, (formal attire:1.1), standing pose, front view, indoor background, bookshelf behind him</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>程宗扬想了想，“第一件，我要带一套大百科全书。</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>因为财富可能贬值，而知识不会。</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>"Wealth may lose its value, but knowledge never will."</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>1girl, wise expression, holding a book, (knowledge theme:1.5), long hair, elegant dress, (standing pose:1.2), library background, soft lighting, focused gaze, (intellectual atmosphere:1.3)</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>因为财富可能贬值，而知识不会。</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>然后我要带一把瑞士军刀，功能越多越好。</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>"Then I’ll bring a Swiss Army knife—the more functions, the better."</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>1girl, determined expression, Swiss Army knife, functional clothing, close-up view, holding knife, outdoor background, (detailed knife:1.3), (focused eyes:1.2), adventurous theme</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>然后我要带一把瑞士军刀，功能越多越好。</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>第三件，我会带一袋玻璃珠。</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>"The third item I would bring is a bag of glass marbles."</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>1girl, nostalgic emotion, holding glass marbles, (vibrant colored marbles:1.4), casual summer dress, (crouching pose:1.2), close up view, sunlight filtering through fingers, park background, green grass, dappled shadows</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>第三件，我会带一袋玻璃珠。</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>“玻璃珠？</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>"Glass beads?"</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>1girl, glass beads, curious expression, young adult, (delicate features:1.3), (sparkling eyes:1.2), flowing dress, holding beads, close up, soft lighting, (intricate details:1.1), studio background</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>“玻璃珠？</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>“如果穿越到古代，没有比玻璃珠更方便更容易换钱的了。</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>"If you were to travel back in time, nothing would be more convenient or easier to trade for money than glass beads."</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>1girl, time travel theme, curious expression, (vintage clothing:1.3), holding glass beads, (close up view:1.2), marketplace background, historical setting, warm lighting, detailed textures</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>“如果穿越到古代，没有比玻璃珠更方便更容易换钱的了。</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>说不定拿一颗玻璃珠，我就能换一座庄园。</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>"Who knows, maybe a single glass bead could trade for a grand estate."</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>1girl, fantasy setting, mysterious aura, (long flowing hair:1.5), (elegant dress:1.2), holding glass bead, (enigmatic smile:1.3), close up, intricate palace background, soft lighting, detailed jewelry</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>说不定拿一颗玻璃珠，我就能换一座庄园。</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>“哈哈，如果你穿越到西方，玻璃珠就不值钱，还不如带一根金条。</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>"Ha, if you traveled to the West, glass beads wouldn’t be worth much—you’d be better off bringing a gold bar."</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>1girl, sarcastic expression, long black hair, traditional Chinese clothing, holding glass beads, (gold bar:1.3), side view, marketplace background, (smirking:1.2), ancient setting</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>“哈哈，如果你穿越到西方，玻璃珠就不值钱，还不如带一根金条。</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>“那干脆让你穿越到恐龙时代，拿金条也没用。</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>"Then you might as well time-travel to the dinosaur age—gold bars would be useless there."</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>1girl, time travel theme, surprised expression, (long flowing hair:1.3), futuristic clothing, holding gold bar, (dynamic pose:1.2), front view, prehistoric jungle background, dinosaurs in distance</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>“那干脆让你穿越到恐龙时代，拿金条也没用。</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>两人在开着玩笑，忽然机身微微一抖，像是遇到气流。</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>The two were joking around when the plane gave a slight shudder, as if hitting turbulence.</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>1girl, 1boy, airplane interior, casual conversation, slight fear, young adults, (nervous expression:1.3), (airplane seats:1.2), sitting pose, front view, turbulence effect, cloudy sky background</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>两人在开着玩笑，忽然机身微微一抖，像是遇到气流。</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>接着扩音器里传来机长的声音，“前方有雷暴区域正在形成。</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Then the captain's voice came over the loudspeaker, "A thunderstorm is forming ahead."</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>1man, captain, serious expression, middle aged, (uniform:1.3), standing at controls, (thunderstorm background:1.2), cockpit view, announcing warning, stormy weather, dark clouds</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>接着扩音器里传来机长的声音，“前方有雷暴区域正在形成。</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>各位乘客请系好安全带。</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>"Please fasten your seatbelts, everyone."</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>1girl, airplane cabin setting, serious expression, flight attendant uniform, standing pose, holding microphone, front view, passengers in background, safety announcement, professional demeanor</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>各位乘客请系好安全带。</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>不要离开自己的座位。</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>"Stay in your seat."</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>1girl, serious expression, classroom setting, sitting posture, school uniform, medium brown hair, front view, holding book, daylight background</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>不要离开自己的座位。</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>透过机窗，能看到外面黑色的云层正疯狂地涌动着，云中不时闪过耀眼的电光，飞机受到乱流影响，所有灯光忽然熄灭，陷入一片黑暗，旅客们失声惊叫，空中小姐忙着安抚，场面一片混乱。</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Through the airplane window, dark clouds could be seen churning violently outside, with dazzling flashes of lightning piercing through them. The plane shook as it hit turbulence, and suddenly, all the lights went out, plunging the cabin into darkness. Passengers screamed in panic, while flight attendants rushed to calm them down, creating a scene of chaos.</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>1girl, airplane cabin, panic emotion, (fearful expression:1.5), flight attendant uniform, standing pose, assisting passengers, close up view, dark stormy background, turbulence chaos  
+1boy, airplane cabin, scared emotion, (tense face:1.3), casual travel clothes, sitting pose, gripping armrests, front view, lightning flashes outside  
+multiple people, airplane interior, chaotic scene, mixed emotions, various clothing, different poses, wide angle view, emergency lighting, stormy sky  
+1girl, airplane window seat, anxious emotion, (wide eyes:1.4), hoodie and jeans, looking outside, side view, dark clouds churning  
+flight attendants, airplane aisle, professional demeanor, calm expression, uniform attire, walking pose, helping passengers, dim cabin lighting</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>透过机窗，能看到外面黑色的云层正疯狂地涌动着，云中不时闪过耀眼的电光，飞机受到乱流影响，所有灯光忽然熄灭，陷入一片黑暗，旅客们失声惊叫，空中小姐忙着安抚，场面一片混乱。</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>他扭过头，“宗扬！</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>He turned his head, "Zong Yang!"</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>1boy, surprised expression, turning head, calling out, Zong Yang, medium hair, casual outfit, street background, daytime, side view, (emotional intensity:1.3), (dynamic pose:1.2)</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>他扭过头，“宗扬！</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>你知道吗？</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>"Did you know?"</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>1girl, curious expression, (sparkling eyes:1.3), (wavy brown hair:1.2), casual outfit, holding a book, slight tilt head, front view, library background, warm lighting  
+1boy, surprised look, (messy black hair:1.3), school uniform, leaning forward, mid shot, classroom setting, chalkboard behind  
+2girls, laughing together, (long blonde hair:1.2), (short pink hair:1.2), summer dresses, sitting on grass, low angle, park scenery, sunny day  
+1girl, determined gaze, (ponytail:1.1), sports gear, running pose, side view, track field background, motion blur effect  
+1boy, shy smile, (glasses:1.2), hoodie and jeans, hands in pockets, three quarter view, city street at dusk, neon signs  
+1girl, sleepy face, (bed hair:1.3), pajamas, yawning pose, close up, bedroom setting, soft morning light  
+2boys, competitive stance, (sweaty foreheads:1.1), basketball jerseys, dribbling ball, dynamic angle, gymnasium background, action shot  
+1girl, joyful expression, (braided hair:1.2), floral dress, spinning around, high angle, meadow with flowers, bokeh effect  
+1boy, focused look, (headphones:1.3), graphic tee, sitting at desk, over shoulder view, computer screen glow, dark room  
+1girl, mischievous grin, (short curly hair:1.2), punk outfit, hands on hips, low angle, graffiti wall background, street art</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>你知道吗？</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>也有日本学生在飞机上搞穿越的，那是一道雷电打中飞机，然后那个学生就穿越去三国了！</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>There was also a Japanese student who experienced a time-travel incident on a plane—it was struck by lightning, and the next thing he knew, he was transported back to the Three Kingdoms era!</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>1boy, Japanese student, time travel incident, surprised expression, school uniform, sitting on plane seat, front view, lightning strike, Three Kingdoms era background  
+1boy, young man, shocked face, modern clothing, gripping seat armrests, medium shot, airplane cabin, ancient Chinese battlefield  
+Japanese teenager, wide eyes, disheveled hair, white shirt, black pants, leaning forward, low angle view, stormy sky, historical warriors  
+time traveler, male protagonist, confused emotion, wrinkled uniform, raised hands, over the shoulder perspective, thunderstorm, warring states period  
+1boy, college student, open mouth, necktie, half standing pose, close up, flashing lights, time portal, ancient army  
+student character, mixed fear and awe, carrying backpack, turning head, dynamic angle, plane interior fading, Three Kingdoms scenery  
+lightning strike event, male lead, short black hair, unbuttoned collar, bracing for impact, side profile, energy surge, historical transition</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>也有日本学生在飞机上搞穿越的，那是一道雷电打中飞机，然后那个学生就穿越去三国了！</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>程宗扬没好气地说：“雷电打中飞机，唯一会发生的事情就是坠机，去死国有路，三国你就别想了。</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Cheng Zongyang snapped, "If lightning strikes the plane, the only outcome is a crash. You can forget about the Three Kingdoms—your one-way ticket is straight to the afterlife."</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>1boy, angry expression, (dark suit:1.3), (pointing finger:1.2), intense dialogue, airplane cabin background, dramatic lighting, close up view, thunderstorm outside window, serious tone</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>程宗扬没好气地说：“雷电打中飞机，唯一会发生的事情就是坠机，去死国有路，三国你就别想了。</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>正说着，一道强烈的紫色雷电闪过，彷佛一条飞旋的紫蛇透过机窗，朝程宗扬黑色的眼眸射来，程宗扬急忙扭头，正看到段强惊讶的目光，接着那道电光像细针一样刺在他右侧的太阳穴上，发出“嘶”的一声轻响。</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>As they spoke, a blinding bolt of purple lightning flashed, like a twisting violet snake streaking through the airplane window straight toward Cheng Zongyang's dark eyes. He jerked his head aside just in time to catch Duan Qiang's startled gaze. In the next instant, the electric light pierced his right temple like a needle, letting out a faint hissing sound.</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>1boy, intense emotion, shocked expression, dark eyes, (purple lightning:1.5), modern airplane interior, sudden movement, jerking head, (electric light piercing temple:1.3), Duan Qiang staring, (violet snake like lightning:1.2), right temple injury, hissing sound, side view, dramatic lighting, tense atmosphere</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>正说着，一道强烈的紫色雷电闪过，彷佛一条飞旋的紫蛇透过机窗，朝程宗扬黑色的眼眸射来，程宗扬急忙扭头，正看到段强惊讶的目光，接着那道电光像细针一样刺在他右侧的太阳穴上，发出“嘶”的一声轻响。</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>飞机终于避开那片雷雨云，安全驶入既定航道，电力回复，所有灯光重新亮了起来，所有的乘客都松了口气。</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>The plane finally maneuvered around the thunderstorm and safely returned to its designated flight path. As power was restored and all the lights came back on, the passengers collectively breathed a sigh of relief.</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>1girl, relief emotion, (long brown hair:1.3), (flight attendant uniform:1.2), standing pose, adjusting overhead compartment, front view, airplane cabin background, dim lighting  
+1boy, calm expression, short black hair, business suit, sitting pose, fastening seatbelt, side view, airplane window background, stormy sky  
+passengers, mixed emotions, varied clothing, seated poses, collective sigh, front view, airplane interior background, restored lighting  
+flight cockpit, professional setting, two pilots, focused expressions, pilot uniforms, seated poses, operating controls, dashboard view, storm clouds outside  
+1girl, young child, scared emotion, pigtails, colorful dress, hugging teddy bear, close-up view, mother comforting, airplane seat background</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>飞机终于避开那片雷雨云，安全驶入既定航道，电力回复，所有灯光重新亮了起来，所有的乘客都松了口气。</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>“咦？</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>"Huh?"</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>1girl, confused expression, (short brown hair:1.3), casual outfit, sitting pose, front view, questioning gesture, indoor background</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>“咦？</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>这边的两个年轻人呢？</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>"What about these two young people over here?"</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>1girl, 1boy, young couple, happy expression, casual outfit, urban setting, standing close, front view, smiling, city park background  
+1girl, 1boy, teenage friends, curious look, school uniforms, classroom setting, sitting together, side view, chatting, bright daylight  
+1girl, 1boy, romantic mood, blushing faces, elegant attire, sunset beach, holding hands, medium shot, golden hour lighting  
+1girl, 1boy, playful energy, sporty clothing, basketball court, jumping high, dynamic pose, low angle view, action shot  
+1girl, 1boy, shy interaction, winter coats, snowy park, standing awkwardly, over shoulder view, falling snowflakes</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>这边的两个年轻人呢？</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>有人忽然发现，靠窗的两个座位空荡荡的，上面那两个年轻人就像凭空消失一般，没有留下任何痕迹。</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Someone suddenly noticed that the two seats by the window were empty—the young people who had been sitting there seemed to have vanished into thin air, leaving no trace behind.</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>1boy, mysterious disappearance, young adult, shocked expression, casual outfit, sitting pose, front view, empty train seats, dim lighting  
+1girl, urban legend, pale skin, wide eyed fear, hoodie and jeans, turning head, side angle, public transport, foggy window  
+2people, supernatural event, normal appearance, confused emotions, modern clothing, vanishing act, high angle, crowded train, eerie atmosphere  
+1boy, thriller theme, average height, tense mood, dark jacket, reaching out, over shoulder shot, empty space, cold color palette  
+1girl, suspense scene, shoulder length hair, panicked reaction, sneakers and backpack, standing abruptly, low angle view, metallic interior, flickering lights</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>有人忽然发现，靠窗的两个座位空荡荡的，上面那两个年轻人就像凭空消失一般，没有留下任何痕迹。</t>
         </is>
       </c>
     </row>
